--- a/outputs/ML_Results/dist_commute/Clermont.xlsx
+++ b/outputs/ML_Results/dist_commute/Clermont.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ40412960" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ40653999" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ40920545" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ41179568" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ41441923" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ41720127" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ41983676" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ42241238" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ42500915" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ35788900" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ36014115" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ36270883" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ36526286" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ36798888" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ37127297" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ37398487" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ37660359" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ37930693" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8695.445587361406</v>
+        <v>8823.941225075278</v>
       </c>
       <c r="C2" t="n">
-        <v>3.449314400092037e-06</v>
+        <v>2.692610624341241e-06</v>
       </c>
     </row>
     <row r="3">
@@ -479,192 +479,179 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1800.583266308089</v>
+        <v>-1467.304386793773</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1429627206794468</v>
+        <v>0.2325748929640387</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-294.4736370167911</v>
+        <v>-657.863036233698</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8180715650898737</v>
+        <v>0.5939066148005518</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-578.3578785796071</v>
+        <v>63.73169256994221</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6380078661086453</v>
+        <v>0.6186954853841603</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>37.82622455625305</v>
+        <v>-727.2188504365639</v>
       </c>
       <c r="C6" t="n">
-        <v>0.767276715886543</v>
+        <v>0.01535100925948131</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-831.4168500491057</v>
+        <v>-42.05418367768576</v>
       </c>
       <c r="C7" t="n">
-        <v>0.005712008532614434</v>
+        <v>0.002110230379233168</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-36.28288571044866</v>
+        <v>-128.0522417711304</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0082904780297941</v>
+        <v>0.3089875033855584</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-161.1179214046178</v>
+        <v>687.662486031705</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2004275335228351</v>
+        <v>1.367593439580771e-19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>703.6563214526642</v>
+        <v>-0.1773355001440564</v>
       </c>
       <c r="C10" t="n">
-        <v>1.840060402397044e-20</v>
+        <v>0.2195921619888903</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1564831003639898</v>
+        <v>0.0002779585151639799</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2772969472170497</v>
+        <v>0.07365840109145297</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0002506077260619391</v>
+        <v>-25.74424793330639</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1059521743399929</v>
+        <v>0.05447794427590948</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-25.88836033437804</v>
+        <v>16.74398859040589</v>
       </c>
       <c r="C13" t="n">
-        <v>0.05222153135043287</v>
+        <v>0.01165308196569027</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>17.65446595810961</v>
+        <v>-8801.180472402526</v>
       </c>
       <c r="C14" t="n">
-        <v>0.007653083547130493</v>
+        <v>0.0009723299762683711</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-8565.449872064157</v>
+        <v>-1509.202757821102</v>
       </c>
       <c r="C15" t="n">
-        <v>0.001274420524136494</v>
+        <v>0.2753120788804696</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1692.138964325845</v>
+        <v>22521.52730137578</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2199214265908187</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>23608.94444080481</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.02907215990622287</v>
+        <v>0.03797198950363644</v>
       </c>
     </row>
   </sheetData>
@@ -678,7 +665,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -710,10 +697,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7461.805043198984</v>
+        <v>7434.062366201697</v>
       </c>
       <c r="C2" t="n">
-        <v>4.205151935432306e-05</v>
+        <v>4.867150316356651e-05</v>
       </c>
     </row>
     <row r="3">
@@ -723,192 +710,179 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-645.5176846107875</v>
+        <v>-219.9531325908097</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5780491302826177</v>
+        <v>0.8494920414054357</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>978.73405920857</v>
+        <v>498.0792280157616</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4172757845466522</v>
+        <v>0.6687179859668431</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>539.3145808419783</v>
+        <v>0.9591291819128287</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6415873072761783</v>
+        <v>0.9939140965675616</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-24.08345017450733</v>
+        <v>-390.5759515790499</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8476700784894386</v>
+        <v>0.1909584834278742</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-532.6215906528314</v>
+        <v>-35.6172021365192</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07611697951341183</v>
+        <v>0.00768852356314823</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-28.36289827006063</v>
+        <v>-153.9587424865701</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03514101255159851</v>
+        <v>0.2239000249393986</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-192.0430588260535</v>
+        <v>722.5796753260056</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1290355643807751</v>
+        <v>3.543667224923136e-21</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>740.2170318740242</v>
+        <v>-0.1607890961207082</v>
       </c>
       <c r="C10" t="n">
-        <v>3.407843234328757e-22</v>
+        <v>0.2617169536730858</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1568575281363467</v>
+        <v>0.0003256360809886658</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2713252631708752</v>
+        <v>0.03315873293978405</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0003184227785544991</v>
+        <v>-38.4828845508093</v>
       </c>
       <c r="C12" t="n">
-        <v>0.03638321725424096</v>
+        <v>0.002604120059322093</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-38.94379379761584</v>
+        <v>13.22543485125486</v>
       </c>
       <c r="C13" t="n">
-        <v>0.002206328072757424</v>
+        <v>0.06337604543959358</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>13.41173037021551</v>
+        <v>-8774.604206050568</v>
       </c>
       <c r="C14" t="n">
-        <v>0.05856797347364322</v>
+        <v>0.001008393221888773</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-8928.591739154386</v>
+        <v>-692.5625094755558</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0007773744696059152</v>
+        <v>0.6027005486953536</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-940.1982634826503</v>
+        <v>21859.07590153241</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4784185106829889</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>24475.57183895417</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.02488332597574269</v>
+        <v>0.04555372145214264</v>
       </c>
     </row>
   </sheetData>
@@ -922,7 +896,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -954,10 +928,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5072.14432456849</v>
+        <v>5049.489868935901</v>
       </c>
       <c r="C2" t="n">
-        <v>0.008159390930701647</v>
+        <v>0.008698719458431366</v>
       </c>
     </row>
     <row r="3">
@@ -967,192 +941,179 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-268.1609990750753</v>
+        <v>105.830841406677</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8356436299053296</v>
+        <v>0.9347040217822933</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1172.304830239643</v>
+        <v>721.8336520481687</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3789912189954057</v>
+        <v>0.5774278557361864</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>740.3150374482209</v>
+        <v>8.014785468125808</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5662515870412609</v>
+        <v>0.9499367243213181</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.100094976047075</v>
+        <v>-373.9117198711256</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9680268111482935</v>
+        <v>0.2072652185120352</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-496.5009252857724</v>
+        <v>-45.93245721606654</v>
       </c>
       <c r="C7" t="n">
-        <v>0.09579971051080415</v>
+        <v>0.0007500997206733551</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-39.95433797571135</v>
+        <v>39.03766685615417</v>
       </c>
       <c r="C8" t="n">
-        <v>0.003552695712846707</v>
+        <v>0.7545721518354584</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.155440685854089</v>
+        <v>697.4803601939939</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9670699309034079</v>
+        <v>1.668159830230453e-20</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>708.9165034280138</v>
+        <v>-0.2227759551324687</v>
       </c>
       <c r="C10" t="n">
-        <v>3.359542736385024e-21</v>
+        <v>0.1162184017355567</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.2095521391052043</v>
+        <v>0.0003113977463742445</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1381690635121916</v>
+        <v>0.04022978439315471</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0002969392618719902</v>
+        <v>-20.97392382958626</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04966866487291657</v>
+        <v>0.1001312901251033</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-21.64974530959727</v>
+        <v>24.87149819840378</v>
       </c>
       <c r="C13" t="n">
-        <v>0.08850449342998533</v>
+        <v>0.000477837307917402</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>25.39531051786323</v>
+        <v>-8379.576518857599</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0003455424293066167</v>
+        <v>0.00118449285703939</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-8371.187158810051</v>
+        <v>262.0198751003164</v>
       </c>
       <c r="C15" t="n">
-        <v>0.001147406685010048</v>
+        <v>0.8455617693147252</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>43.59237846482762</v>
+        <v>16868.63910474866</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9740852311534581</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>18438.95141898035</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.08302749383341056</v>
+        <v>0.113712023242176</v>
       </c>
     </row>
   </sheetData>
@@ -1166,7 +1127,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1198,10 +1159,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8508.52305903774</v>
+        <v>8529.560980728145</v>
       </c>
       <c r="C2" t="n">
-        <v>4.704879798509519e-06</v>
+        <v>4.993674184305685e-06</v>
       </c>
     </row>
     <row r="3">
@@ -1211,192 +1172,179 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1655.467531086649</v>
+        <v>-1267.581113378954</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2105954507029707</v>
+        <v>0.338588596936966</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>40.00508047933954</v>
+        <v>-664.8374096265111</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9766573619360855</v>
+        <v>0.6172207332623086</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-604.0462029479525</v>
+        <v>38.23748039195816</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6480714447920426</v>
+        <v>0.7660573184944834</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10.93785865544601</v>
+        <v>-687.844610640421</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9319382863497058</v>
+        <v>0.01970517329270351</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-845.1881936363716</v>
+        <v>-39.36973118263692</v>
       </c>
       <c r="C7" t="n">
-        <v>0.004416978515892791</v>
+        <v>0.002849051014410698</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-33.35157044952808</v>
+        <v>44.90693075612194</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01168646397999835</v>
+        <v>0.7122782066780533</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>17.44071267950087</v>
+        <v>632.8935639936315</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8857385216261976</v>
+        <v>1.282217901834482e-17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>646.7270579835257</v>
+        <v>-0.1333085042996502</v>
       </c>
       <c r="C10" t="n">
-        <v>1.987579783516807e-18</v>
+        <v>0.3516374440522145</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1296504448842725</v>
+        <v>0.0001923761864947463</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3625073740831447</v>
+        <v>0.2027990891197529</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0001888097245357807</v>
+        <v>-17.36017829589345</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2089165393607452</v>
+        <v>0.1804070008788531</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-18.19178671712262</v>
+        <v>14.33462372331728</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1583199934781696</v>
+        <v>0.02731621534209232</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>15.18583181038081</v>
+        <v>-7652.377538342274</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0188565590264885</v>
+        <v>0.003096036221935627</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-7637.844112518675</v>
+        <v>-2254.021360863794</v>
       </c>
       <c r="C15" t="n">
-        <v>0.002998727241154059</v>
+        <v>0.09351164153805151</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-2322.621291791009</v>
+        <v>13666.19020573238</v>
       </c>
       <c r="C16" t="n">
-        <v>0.08238505360187862</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>14783.99014334648</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1607376326099265</v>
+        <v>0.1969003462082297</v>
       </c>
     </row>
   </sheetData>
@@ -1410,7 +1358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1442,10 +1390,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8399.804172779786</v>
+        <v>8476.944618525293</v>
       </c>
       <c r="C2" t="n">
-        <v>5.308957383471681e-06</v>
+        <v>4.825497772956968e-06</v>
       </c>
     </row>
     <row r="3">
@@ -1455,192 +1403,179 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1336.709377924514</v>
+        <v>-958.5276214723041</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2643139945274731</v>
+        <v>0.4236369605118151</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>247.8997464373169</v>
+        <v>-43.3462929137836</v>
       </c>
       <c r="C4" t="n">
-        <v>0.841905778064395</v>
+        <v>0.9712689407801892</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>21.32978397227475</v>
+        <v>112.5788339113824</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9857936577157376</v>
+        <v>0.3661081656716012</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>101.1760764657191</v>
+        <v>-648.2219664629437</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4145704212389049</v>
+        <v>0.02648489830510342</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-800.2216255979723</v>
+        <v>-40.81917471719842</v>
       </c>
       <c r="C7" t="n">
-        <v>0.006537853163403193</v>
+        <v>0.002262163546362418</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-33.90678649196812</v>
+        <v>32.45474687930469</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01168983628395752</v>
+        <v>0.7878122872170242</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7.319768810793391</v>
+        <v>551.3178667370576</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9514524722994129</v>
+        <v>5.967453936218537e-14</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>561.6604462228779</v>
+        <v>-0.260607793993447</v>
       </c>
       <c r="C10" t="n">
-        <v>1.651581551013233e-14</v>
+        <v>0.06981044744580782</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.250293400120892</v>
+        <v>0.0003838078037712199</v>
       </c>
       <c r="C11" t="n">
-        <v>0.08021599726900985</v>
+        <v>0.01215732563171201</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0003695361431637862</v>
+        <v>-38.73376235868923</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01530002886671948</v>
+        <v>0.002307498777885201</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-39.14195944676397</v>
+        <v>12.95689189029629</v>
       </c>
       <c r="C13" t="n">
-        <v>0.001974396931870009</v>
+        <v>0.05217608454355117</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>13.53169761782895</v>
+        <v>-7894.473506446585</v>
       </c>
       <c r="C14" t="n">
-        <v>0.04167773784343965</v>
+        <v>0.002046622373800044</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-7853.036614448569</v>
+        <v>-33.65494998619897</v>
       </c>
       <c r="C15" t="n">
-        <v>0.002056970773196714</v>
+        <v>0.9796563171940305</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-192.8873054199473</v>
+        <v>15716.2867257711</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8833242679381039</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>17138.83773400188</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1049117019960469</v>
+        <v>0.1385817217692106</v>
       </c>
     </row>
   </sheetData>
@@ -1654,7 +1589,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1686,10 +1621,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6712.439560638983</v>
+        <v>6763.650042568436</v>
       </c>
       <c r="C2" t="n">
-        <v>7.191558845931898e-05</v>
+        <v>6.640743852795591e-05</v>
       </c>
     </row>
     <row r="3">
@@ -1699,192 +1634,179 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-524.1100275774438</v>
+        <v>-227.2104559364243</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6285285587292839</v>
+        <v>0.8335071776622243</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>711.4887575321386</v>
+        <v>244.2505787679595</v>
       </c>
       <c r="C4" t="n">
-        <v>0.529463196673907</v>
+        <v>0.8221523919156297</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>290.9226802415078</v>
+        <v>-44.7177977612004</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7883425601612144</v>
+        <v>0.7011202842768572</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-55.02013415830907</v>
+        <v>-649.7445826258181</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6359762377565394</v>
+        <v>0.01994456105109625</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-738.5195546154406</v>
+        <v>-28.44249305666227</v>
       </c>
       <c r="C7" t="n">
-        <v>0.008435841699152005</v>
+        <v>0.02279124788017817</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-24.42690625394799</v>
+        <v>-132.7145853190385</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05140260861832806</v>
+        <v>0.2491862290049397</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-155.3624414426969</v>
+        <v>706.789851132859</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1772786529245569</v>
+        <v>3.622053111973471e-24</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>720.2875879191024</v>
+        <v>-0.1333696183780959</v>
       </c>
       <c r="C10" t="n">
-        <v>5.258218880576199e-25</v>
+        <v>0.3166481461872028</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1215010941813896</v>
+        <v>0.0002020259421359287</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3604941377250346</v>
+        <v>0.1569294991726286</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0001943649220110735</v>
+        <v>-23.98053354500862</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1720994432321578</v>
+        <v>0.05455187085158583</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-24.93601739859577</v>
+        <v>17.00329930704344</v>
       </c>
       <c r="C13" t="n">
-        <v>0.04508798364343457</v>
+        <v>0.009952544016766911</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>17.6711156365642</v>
+        <v>-6766.196751093263</v>
       </c>
       <c r="C14" t="n">
-        <v>0.007270301359332756</v>
+        <v>0.00554911535814283</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-6800.539837287197</v>
+        <v>-1169.410357934597</v>
       </c>
       <c r="C15" t="n">
-        <v>0.005185641798047856</v>
+        <v>0.3610343548298863</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1322.417009352556</v>
+        <v>17134.82039505623</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3007521759684257</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>18742.31571152894</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.06034889347741167</v>
+        <v>0.08626412728340947</v>
       </c>
     </row>
   </sheetData>
@@ -1898,7 +1820,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1930,10 +1852,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5377.317244917103</v>
+        <v>5480.831379548359</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002764503819000994</v>
+        <v>0.002379002172503926</v>
       </c>
     </row>
     <row r="3">
@@ -1943,192 +1865,179 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>716.1693608084805</v>
+        <v>1032.489056755066</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5436163852169345</v>
+        <v>0.3815264396292746</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2195.312344854065</v>
+        <v>1468.241642147779</v>
       </c>
       <c r="C4" t="n">
-        <v>0.07456485149983606</v>
+        <v>0.2161364338614819</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1541.060798535541</v>
+        <v>80.32848026869884</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1925028427949601</v>
+        <v>0.5061414717008181</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>73.15750737632689</v>
+        <v>-628.6624200221739</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5432686197617285</v>
+        <v>0.03004093953920199</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-756.7521418807462</v>
+        <v>-37.81885831330099</v>
       </c>
       <c r="C7" t="n">
-        <v>0.009433827248212167</v>
+        <v>0.004567205234261414</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-31.54683071889057</v>
+        <v>85.23424284988208</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01872710247272607</v>
+        <v>0.4742093476930794</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>51.64548945083472</v>
+        <v>657.2439024298172</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6644942182446558</v>
+        <v>8.551914350139861e-20</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>670.8218876176047</v>
+        <v>-0.1603039650840709</v>
       </c>
       <c r="C10" t="n">
-        <v>1.314722587512144e-20</v>
+        <v>0.2477485778096954</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1387722549616398</v>
+        <v>0.0002718202058682876</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3156017003327733</v>
+        <v>0.06461995512318371</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0002554200589306559</v>
+        <v>-26.8277958958385</v>
       </c>
       <c r="C12" t="n">
-        <v>0.08141472209137783</v>
+        <v>0.03402306685598499</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-28.49196956234183</v>
+        <v>13.37633451991022</v>
       </c>
       <c r="C13" t="n">
-        <v>0.02393190961016786</v>
+        <v>0.03424233289848328</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>14.07445211388806</v>
+        <v>-9516.202190153848</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0254061697992394</v>
+        <v>0.0001625725184006185</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-9442.718969055093</v>
+        <v>-144.4649222467929</v>
       </c>
       <c r="C15" t="n">
-        <v>0.00017190125119606</v>
+        <v>0.913488538647123</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-190.149791113618</v>
+        <v>19845.12240974195</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8858406269430456</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>20407.76291956989</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.04892128775503268</v>
+        <v>0.05644433475291194</v>
       </c>
     </row>
   </sheetData>
@@ -2142,7 +2051,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2174,10 +2083,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6121.756185649419</v>
+        <v>6250.817562015282</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001005892035368777</v>
+        <v>0.000876286305338076</v>
       </c>
     </row>
     <row r="3">
@@ -2187,192 +2096,179 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>47.01279665306208</v>
+        <v>501.4366428979832</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9706727535742471</v>
+        <v>0.6968069456809495</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2411.617615384095</v>
+        <v>972.9465503974175</v>
       </c>
       <c r="C4" t="n">
-        <v>0.07186573989498976</v>
+        <v>0.4516224952695024</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1076.520315828624</v>
+        <v>-37.33449517634116</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4006713268362</v>
+        <v>0.7663864399042751</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-74.68608348659794</v>
+        <v>-639.0845757731081</v>
       </c>
       <c r="C6" t="n">
-        <v>0.549440684711792</v>
+        <v>0.0317247735045678</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-847.7714578157828</v>
+        <v>-45.80566387011632</v>
       </c>
       <c r="C7" t="n">
-        <v>0.004496570555635833</v>
+        <v>0.00057470837488526</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-36.42794621151734</v>
+        <v>27.46114679049465</v>
       </c>
       <c r="C8" t="n">
-        <v>0.006240767946888206</v>
+        <v>0.8207355973456693</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-22.81673471998379</v>
+        <v>651.8721790862787</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8498834130935519</v>
+        <v>5.606658772038788e-19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>684.2398930576907</v>
+        <v>-0.1289043548626041</v>
       </c>
       <c r="C10" t="n">
-        <v>7.54131133667067e-21</v>
+        <v>0.374346469768426</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.0873981439267017</v>
+        <v>0.0002141305085304216</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5439766407311022</v>
+        <v>0.1674018357558861</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0001866268920085922</v>
+        <v>-24.47252864957438</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2248727936282002</v>
+        <v>0.05772302528126582</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-25.38640062105823</v>
+        <v>16.9570991283995</v>
       </c>
       <c r="C13" t="n">
-        <v>0.04697158956383465</v>
+        <v>0.01146018807369328</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>17.98599912027478</v>
+        <v>-7042.871692427718</v>
       </c>
       <c r="C14" t="n">
-        <v>0.006838487803025303</v>
+        <v>0.007402973238084213</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-6538.73544205749</v>
+        <v>-322.4538833708606</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0121459800193855</v>
+        <v>0.8137785181831496</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-750.6079947046219</v>
+        <v>14556.55851896591</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5808606640792682</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>14852.17335961323</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1546571404029208</v>
+        <v>0.1669186752734591</v>
       </c>
     </row>
   </sheetData>
@@ -2386,7 +2282,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2418,10 +2314,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7277.812766221917</v>
+        <v>7320.864418528456</v>
       </c>
       <c r="C2" t="n">
-        <v>4.025477129804712e-05</v>
+        <v>3.907617914099611e-05</v>
       </c>
     </row>
     <row r="3">
@@ -2431,192 +2327,179 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-796.9552581625464</v>
+        <v>-433.1998071443047</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4825891510400496</v>
+        <v>0.702507159678042</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>721.1830889598998</v>
+        <v>289.8569389023642</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5424635729371442</v>
+        <v>0.7994734957630499</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>350.6673218159515</v>
+        <v>72.99173116144976</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7576362190979623</v>
+        <v>0.5512956329077374</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>45.60961846829238</v>
+        <v>-229.2295300244328</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7091355201709122</v>
+        <v>0.4303346390536215</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-365.6299562839231</v>
+        <v>-40.09076630503323</v>
       </c>
       <c r="C7" t="n">
-        <v>0.211341346370806</v>
+        <v>0.002453073312918664</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-34.31943431971551</v>
+        <v>-21.68273094189436</v>
       </c>
       <c r="C8" t="n">
-        <v>0.009821009042811449</v>
+        <v>0.8609306134488258</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-65.61208676738188</v>
+        <v>675.7024899723567</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5966826190064433</v>
+        <v>3.434241864611918e-19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>691.3326457439291</v>
+        <v>-0.1366199982214479</v>
       </c>
       <c r="C10" t="n">
-        <v>4.639680162359553e-20</v>
+        <v>0.3384459359130554</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1309868373006464</v>
+        <v>0.0002306268097699036</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3567256818686461</v>
+        <v>0.1362027358426891</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0002272713968732456</v>
+        <v>-33.35205539092524</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1403111694879861</v>
+        <v>0.01013427310934316</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-34.29862091796893</v>
+        <v>8.457107266168068</v>
       </c>
       <c r="C13" t="n">
-        <v>0.007942549228093286</v>
+        <v>0.2058683093840155</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>9.940328954205039</v>
+        <v>-7831.01302176345</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1363586103688876</v>
+        <v>0.002503353719437456</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-8036.141515985711</v>
+        <v>-816.292393842089</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0018457500278951</v>
+        <v>0.5444732857766267</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-922.0311793758501</v>
+        <v>28523.65474750063</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4919163462045796</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>30480.19763907976</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.003618614741647113</v>
+        <v>0.006597878871315938</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_commute/Clermont.xlsx
+++ b/outputs/ML_Results/dist_commute/Clermont.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ35788900" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ36014115" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ36270883" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ36526286" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ36798888" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ37127297" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ37398487" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ37660359" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ37930693" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ04965846" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ05150288" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ05341088" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ05530148" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ05733544" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ05920599" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ06104221" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ06290257" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ06469288" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8823.941225075278</v>
+        <v>8161.887652361219</v>
       </c>
       <c r="C2" t="n">
-        <v>2.692610624341241e-06</v>
+        <v>1.27798377547192e-05</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1467.304386793773</v>
+        <v>-1398.165825311433</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2325748929640387</v>
+        <v>0.2748614263229753</v>
       </c>
     </row>
     <row r="4">
@@ -492,166 +492,179 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-657.863036233698</v>
+        <v>-766.5410444665235</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5939066148005518</v>
+        <v>0.5509536177166805</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63.73169256994221</v>
+        <v>-426.0206417804396</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6186954853841603</v>
+        <v>0.1454283338789771</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-727.2188504365639</v>
+        <v>85.79493238943682</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01535100925948131</v>
+        <v>0.4930539812422633</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-42.05418367768576</v>
+        <v>-788.0833260284054</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002110230379233168</v>
+        <v>0.007120610003070836</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-128.0522417711304</v>
+        <v>-35.99610152950775</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3089875033855584</v>
+        <v>0.00652978560739986</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>687.662486031705</v>
+        <v>41.65708582376828</v>
       </c>
       <c r="C9" t="n">
-        <v>1.367593439580771e-19</v>
+        <v>0.736549726280064</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1773355001440564</v>
+        <v>610.6725885672456</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2195921619888903</v>
+        <v>1.698021179932676e-15</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0002779585151639799</v>
+        <v>-0.1842393443314545</v>
       </c>
       <c r="C11" t="n">
-        <v>0.07365840109145297</v>
+        <v>0.2007831482235445</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-25.74424793330639</v>
+        <v>0.0002536939409632296</v>
       </c>
       <c r="C12" t="n">
-        <v>0.05447794427590948</v>
+        <v>0.09510011605619584</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>16.74398859040589</v>
+        <v>-24.70747600300201</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01165308196569027</v>
+        <v>0.05414532025495009</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-8801.180472402526</v>
+        <v>12.93750067977293</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0009723299762683711</v>
+        <v>0.05361796251329225</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1509.202757821102</v>
+        <v>-7644.833253105158</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2753120788804696</v>
+        <v>0.002391726271157509</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-1307.780167995285</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.3299071522316857</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>22521.52730137578</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.03797198950363644</v>
+      <c r="B17" t="n">
+        <v>15653.20175311127</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.1273484389723485</v>
       </c>
     </row>
   </sheetData>
@@ -665,7 +678,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -697,10 +710,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7434.062366201697</v>
+        <v>6141.802452404683</v>
       </c>
       <c r="C2" t="n">
-        <v>4.867150316356651e-05</v>
+        <v>0.0008152993859002675</v>
       </c>
     </row>
     <row r="3">
@@ -710,10 +723,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-219.9531325908097</v>
+        <v>-309.090655241533</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8494920414054357</v>
+        <v>0.7993590286423242</v>
       </c>
     </row>
     <row r="4">
@@ -723,166 +736,179 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>498.0792280157616</v>
+        <v>462.4826196599651</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6687179859668431</v>
+        <v>0.7051109581486592</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9591291819128287</v>
+        <v>-164.5661602495352</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9939140965675616</v>
+        <v>0.5810670125731617</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-390.5759515790499</v>
+        <v>57.81685530693134</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1909584834278742</v>
+        <v>0.6497162794913648</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-35.6172021365192</v>
+        <v>-456.9782102751635</v>
       </c>
       <c r="C7" t="n">
-        <v>0.00768852356314823</v>
+        <v>0.1246723839989181</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-153.9587424865701</v>
+        <v>-41.59708758340605</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2239000249393986</v>
+        <v>0.002249498460245412</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>722.5796753260056</v>
+        <v>-5.17722898796373</v>
       </c>
       <c r="C9" t="n">
-        <v>3.543667224923136e-21</v>
+        <v>0.9664380834110711</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1607890961207082</v>
+        <v>658.9964608392775</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2617169536730858</v>
+        <v>8.852923896190928e-19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0003256360809886658</v>
+        <v>-0.2281951467377259</v>
       </c>
       <c r="C11" t="n">
-        <v>0.03315873293978405</v>
+        <v>0.1262558846489797</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-38.4828845508093</v>
+        <v>0.0002241575695645711</v>
       </c>
       <c r="C12" t="n">
-        <v>0.002604120059322093</v>
+        <v>0.1578312736287918</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>13.22543485125486</v>
+        <v>-20.3120026015943</v>
       </c>
       <c r="C13" t="n">
-        <v>0.06337604543959358</v>
+        <v>0.1171513596632158</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-8774.604206050568</v>
+        <v>19.14798934218299</v>
       </c>
       <c r="C14" t="n">
-        <v>0.001008393221888773</v>
+        <v>0.006832045824105597</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-692.5625094755558</v>
+        <v>-8034.666533936335</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6027005486953536</v>
+        <v>0.002012079149192532</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-1088.817365120318</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.4193513087861768</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>21859.07590153241</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.04555372145214264</v>
+      <c r="B17" t="n">
+        <v>25775.00996015057</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.01582944101513317</v>
       </c>
     </row>
   </sheetData>
@@ -896,7 +922,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -928,10 +954,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5049.489868935901</v>
+        <v>5764.720620284255</v>
       </c>
       <c r="C2" t="n">
-        <v>0.008698719458431366</v>
+        <v>0.0009431222672642935</v>
       </c>
     </row>
     <row r="3">
@@ -941,10 +967,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>105.830841406677</v>
+        <v>-36.64756594043325</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9347040217822933</v>
+        <v>0.9741387948632152</v>
       </c>
     </row>
     <row r="4">
@@ -954,166 +980,179 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>721.8336520481687</v>
+        <v>572.4060799751699</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5774278557361864</v>
+        <v>0.6144013043960526</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8.014785468125808</v>
+        <v>-529.715541304681</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9499367243213181</v>
+        <v>0.07050980380527289</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-373.9117198711256</v>
+        <v>-144.9831056680139</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2072652185120352</v>
+        <v>0.2529718318118835</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-45.93245721606654</v>
+        <v>-347.0287735605451</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0007500997206733551</v>
+        <v>0.232628480234476</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>39.03766685615417</v>
+        <v>-36.58467148586728</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7545721518354584</v>
+        <v>0.005236581353527663</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>697.4803601939939</v>
+        <v>-112.6939055061212</v>
       </c>
       <c r="C9" t="n">
-        <v>1.668159830230453e-20</v>
+        <v>0.3488096257187739</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.2227759551324687</v>
+        <v>731.5832816989098</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1162184017355567</v>
+        <v>4.206571240195249e-23</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0003113977463742445</v>
+        <v>-0.05136194989627978</v>
       </c>
       <c r="C11" t="n">
-        <v>0.04022978439315471</v>
+        <v>0.7144175444530962</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-20.97392382958626</v>
+        <v>0.0002162344074677076</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1001312901251033</v>
+        <v>0.1459339931194449</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>24.87149819840378</v>
+        <v>-30.35953296268702</v>
       </c>
       <c r="C13" t="n">
-        <v>0.000477837307917402</v>
+        <v>0.01764253843090191</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-8379.576518857599</v>
+        <v>23.48811289819704</v>
       </c>
       <c r="C14" t="n">
-        <v>0.00118449285703939</v>
+        <v>0.0005076708376750411</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>262.0198751003164</v>
+        <v>-7160.60453567625</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8455617693147252</v>
+        <v>0.00344347265832722</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-591.5088378149007</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.6533534997311691</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>16868.63910474866</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.113712023242176</v>
+      <c r="B17" t="n">
+        <v>15395.34172645072</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.1312335696432009</v>
       </c>
     </row>
   </sheetData>
@@ -1127,7 +1166,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1159,10 +1198,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8529.560980728145</v>
+        <v>6806.804015639775</v>
       </c>
       <c r="C2" t="n">
-        <v>4.993674184305685e-06</v>
+        <v>9.064999744135241e-05</v>
       </c>
     </row>
     <row r="3">
@@ -1172,10 +1211,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1267.581113378954</v>
+        <v>-236.2403818018648</v>
       </c>
       <c r="C3" t="n">
-        <v>0.338588596936966</v>
+        <v>0.8350439508897043</v>
       </c>
     </row>
     <row r="4">
@@ -1185,166 +1224,179 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-664.8374096265111</v>
+        <v>278.0640124870027</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6172207332623086</v>
+        <v>0.807095978814838</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>38.23748039195816</v>
+        <v>-338.2477278808063</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7660573184944834</v>
+        <v>0.2460060454030957</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-687.844610640421</v>
+        <v>-5.582879812345425</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01970517329270351</v>
+        <v>0.963598969534784</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-39.36973118263692</v>
+        <v>-409.0637134127342</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002849051014410698</v>
+        <v>0.1602934487853716</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>44.90693075612194</v>
+        <v>-29.19784586580887</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7122782066780533</v>
+        <v>0.02580353973624199</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>632.8935639936315</v>
+        <v>13.13194646792231</v>
       </c>
       <c r="C9" t="n">
-        <v>1.282217901834482e-17</v>
+        <v>0.9147082490090501</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1333085042996502</v>
+        <v>687.3155275375059</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3516374440522145</v>
+        <v>6.936092742336201e-21</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0001923761864947463</v>
+        <v>-0.1594374907490713</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2027990891197529</v>
+        <v>0.2514324267509619</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-17.36017829589345</v>
+        <v>0.0002855589995821262</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1804070008788531</v>
+        <v>0.05663967291070517</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>14.33462372331728</v>
+        <v>-25.59201526192288</v>
       </c>
       <c r="C13" t="n">
-        <v>0.02731621534209232</v>
+        <v>0.0478202889317704</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-7652.377538342274</v>
+        <v>8.942081890711172</v>
       </c>
       <c r="C14" t="n">
-        <v>0.003096036221935627</v>
+        <v>0.1951779257538632</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-2254.021360863794</v>
+        <v>-8344.856683410648</v>
       </c>
       <c r="C15" t="n">
-        <v>0.09351164153805151</v>
+        <v>0.001216125628383027</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-1277.432105160499</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.3342931196422497</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>13666.19020573238</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1969003462082297</v>
+      <c r="B17" t="n">
+        <v>15159.45669279989</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.1498951325678966</v>
       </c>
     </row>
   </sheetData>
@@ -1358,7 +1410,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1390,10 +1442,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8476.944618525293</v>
+        <v>7655.605950988116</v>
       </c>
       <c r="C2" t="n">
-        <v>4.825497772956968e-06</v>
+        <v>1.716118524036682e-05</v>
       </c>
     </row>
     <row r="3">
@@ -1403,10 +1455,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-958.5276214723041</v>
+        <v>-1470.388142724775</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4236369605118151</v>
+        <v>0.2348913604897561</v>
       </c>
     </row>
     <row r="4">
@@ -1416,166 +1468,179 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-43.3462929137836</v>
+        <v>-588.7801261863958</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9712689407801892</v>
+        <v>0.6355033729314961</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>112.5788339113824</v>
+        <v>-430.7573924769368</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3661081656716012</v>
+        <v>0.1421986144084713</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-648.2219664629437</v>
+        <v>84.17061592866904</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02648489830510342</v>
+        <v>0.4929109350696711</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-40.81917471719842</v>
+        <v>-434.323344103697</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002262163546362418</v>
+        <v>0.1371874751260045</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>32.45474687930469</v>
+        <v>-45.20593340238081</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7878122872170242</v>
+        <v>0.000583513535524886</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>551.3178667370576</v>
+        <v>-95.88986570388859</v>
       </c>
       <c r="C9" t="n">
-        <v>5.967453936218537e-14</v>
+        <v>0.4358202372330123</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.260607793993447</v>
+        <v>688.6886120632356</v>
       </c>
       <c r="C10" t="n">
-        <v>0.06981044744580782</v>
+        <v>4.73066082089032e-21</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0003838078037712199</v>
+        <v>-0.1875365889321516</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01215732563171201</v>
+        <v>0.1856594319995124</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-38.73376235868923</v>
+        <v>0.0002358715408836852</v>
       </c>
       <c r="C12" t="n">
-        <v>0.002307498777885201</v>
+        <v>0.1221703468510578</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>12.95689189029629</v>
+        <v>-24.02098212136774</v>
       </c>
       <c r="C13" t="n">
-        <v>0.05217608454355117</v>
+        <v>0.06089232235575671</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-7894.473506446585</v>
+        <v>18.75343464929254</v>
       </c>
       <c r="C14" t="n">
-        <v>0.002046622373800044</v>
+        <v>0.004181878417432766</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-33.65494998619897</v>
+        <v>-8389.362760125321</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9796563171940305</v>
+        <v>0.0007803233310045263</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-1234.128045552804</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.3613311543219103</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>15716.2867257711</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1385817217692106</v>
+      <c r="B17" t="n">
+        <v>23878.03516992361</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.02008477423758532</v>
       </c>
     </row>
   </sheetData>
@@ -1589,7 +1654,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1621,10 +1686,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6763.650042568436</v>
+        <v>6319.166683375961</v>
       </c>
       <c r="C2" t="n">
-        <v>6.640743852795591e-05</v>
+        <v>0.001531457741637854</v>
       </c>
     </row>
     <row r="3">
@@ -1634,10 +1699,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-227.2104559364243</v>
+        <v>810.0799347870261</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8335071776622243</v>
+        <v>0.5884184579770418</v>
       </c>
     </row>
     <row r="4">
@@ -1647,166 +1712,179 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>244.2505787679595</v>
+        <v>1429.777090539538</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8221523919156297</v>
+        <v>0.3401648943399462</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-44.7177977612004</v>
+        <v>-547.8126714652415</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7011202842768572</v>
+        <v>0.06246913956595666</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-649.7445826258181</v>
+        <v>24.50482887707073</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01994456105109625</v>
+        <v>0.8410301673574463</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-28.44249305666227</v>
+        <v>-698.717696424383</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02279124788017817</v>
+        <v>0.01654606501480915</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-132.7145853190385</v>
+        <v>-50.44166228316822</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2491862290049397</v>
+        <v>0.0001231570833269863</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>706.789851132859</v>
+        <v>-47.67937638319419</v>
       </c>
       <c r="C9" t="n">
-        <v>3.622053111973471e-24</v>
+        <v>0.6951149755759545</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1333696183780959</v>
+        <v>655.4520495226072</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3166481461872028</v>
+        <v>3.021070724228157e-18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0002020259421359287</v>
+        <v>-0.1105135616277938</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1569294991726286</v>
+        <v>0.4368428422282632</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-23.98053354500862</v>
+        <v>0.0001923610045361228</v>
       </c>
       <c r="C12" t="n">
-        <v>0.05455187085158583</v>
+        <v>0.203889494915015</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>17.00329930704344</v>
+        <v>-29.38877307896783</v>
       </c>
       <c r="C13" t="n">
-        <v>0.009952544016766911</v>
+        <v>0.02020350568362153</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-6766.196751093263</v>
+        <v>16.44462172066445</v>
       </c>
       <c r="C14" t="n">
-        <v>0.00554911535814283</v>
+        <v>0.0116160970900742</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1169.410357934597</v>
+        <v>-7672.205218856945</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3610343548298863</v>
+        <v>0.00196498856631186</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-398.4829469145099</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.7670833778606152</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>17134.82039505623</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.08626412728340947</v>
+      <c r="B17" t="n">
+        <v>14906.90332846326</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.1399294976012469</v>
       </c>
     </row>
   </sheetData>
@@ -1820,7 +1898,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1852,10 +1930,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5480.831379548359</v>
+        <v>7761.406373707539</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002379002172503926</v>
+        <v>1.287858368063518e-05</v>
       </c>
     </row>
     <row r="3">
@@ -1865,10 +1943,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1032.489056755066</v>
+        <v>-210.2556215998876</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3815264396292746</v>
+        <v>0.8547770109635885</v>
       </c>
     </row>
     <row r="4">
@@ -1878,166 +1956,179 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1468.241642147779</v>
+        <v>148.07928984403</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2161364338614819</v>
+        <v>0.8979781734384513</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>80.32848026869884</v>
+        <v>-214.845070487853</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5061414717008181</v>
+        <v>0.4680019506866484</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-628.6624200221739</v>
+        <v>28.5665338317644</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03004093953920199</v>
+        <v>0.8233290802037726</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-37.81885831330099</v>
+        <v>-407.4205605921757</v>
       </c>
       <c r="C7" t="n">
-        <v>0.004567205234261414</v>
+        <v>0.1675348548771209</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>85.23424284988208</v>
+        <v>-41.58227315383535</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4742093476930794</v>
+        <v>0.001983554020545768</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>657.2439024298172</v>
+        <v>28.83369959305605</v>
       </c>
       <c r="C9" t="n">
-        <v>8.551914350139861e-20</v>
+        <v>0.8146842979285704</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1603039650840709</v>
+        <v>579.6431603847659</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2477485778096954</v>
+        <v>3.79702770573111e-15</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0002718202058682876</v>
+        <v>-0.1927819321621305</v>
       </c>
       <c r="C11" t="n">
-        <v>0.06461995512318371</v>
+        <v>0.1696105168809295</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-26.8277958958385</v>
+        <v>0.0002103840696554012</v>
       </c>
       <c r="C12" t="n">
-        <v>0.03402306685598499</v>
+        <v>0.1646831429824636</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>13.37633451991022</v>
+        <v>-26.5399039582022</v>
       </c>
       <c r="C13" t="n">
-        <v>0.03424233289848328</v>
+        <v>0.04175256200515718</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-9516.202190153848</v>
+        <v>11.21895884226373</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0001625725184006185</v>
+        <v>0.09638014285943236</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-144.4649222467929</v>
+        <v>-8985.421204612538</v>
       </c>
       <c r="C15" t="n">
-        <v>0.913488538647123</v>
+        <v>0.0004478978821212637</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-1027.658876933838</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.4472672449332448</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>19845.12240974195</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.05644433475291194</v>
+      <c r="B17" t="n">
+        <v>26411.7680611033</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.01015473253822788</v>
       </c>
     </row>
   </sheetData>
@@ -2051,7 +2142,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2083,10 +2174,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6250.817562015282</v>
+        <v>5061.290221598843</v>
       </c>
       <c r="C2" t="n">
-        <v>0.000876286305338076</v>
+        <v>0.004340662807778731</v>
       </c>
     </row>
     <row r="3">
@@ -2096,10 +2187,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>501.4366428979832</v>
+        <v>939.4657102214805</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6968069456809495</v>
+        <v>0.4275840772896961</v>
       </c>
     </row>
     <row r="4">
@@ -2109,166 +2200,179 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>972.9465503974175</v>
+        <v>1546.242166201513</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4516224952695024</v>
+        <v>0.1937232542624609</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-37.33449517634116</v>
+        <v>-203.030682100683</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7663864399042751</v>
+        <v>0.4819187735095904</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-639.0845757731081</v>
+        <v>-41.44068544370424</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0317247735045678</v>
+        <v>0.7353726130777439</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-45.80566387011632</v>
+        <v>-533.8998189300592</v>
       </c>
       <c r="C7" t="n">
-        <v>0.00057470837488526</v>
+        <v>0.06492174023252967</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>27.46114679049465</v>
+        <v>-47.35501999157245</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8207355973456693</v>
+        <v>0.0003397983414135778</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>651.8721790862787</v>
+        <v>48.91236390469101</v>
       </c>
       <c r="C9" t="n">
-        <v>5.606658772038788e-19</v>
+        <v>0.6820703749565766</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1289043548626041</v>
+        <v>704.9473633721501</v>
       </c>
       <c r="C10" t="n">
-        <v>0.374346469768426</v>
+        <v>1.541907557570832e-22</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0002141305085304216</v>
+        <v>-0.1847959950933127</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1674018357558861</v>
+        <v>0.1851832544609771</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-24.47252864957438</v>
+        <v>0.0003324222348257026</v>
       </c>
       <c r="C12" t="n">
-        <v>0.05772302528126582</v>
+        <v>0.0251120165505245</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>16.9570991283995</v>
+        <v>-24.04183279035022</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01146018807369328</v>
+        <v>0.05783903972719634</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-7042.871692427718</v>
+        <v>14.86917623436837</v>
       </c>
       <c r="C14" t="n">
-        <v>0.007402973238084213</v>
+        <v>0.02143957724261795</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-322.4538833708606</v>
+        <v>-8085.766996010845</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8137785181831496</v>
+        <v>0.0008058568151461128</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-99.29397436634088</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.941187875932344</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>14556.55851896591</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1669186752734591</v>
+      <c r="B17" t="n">
+        <v>13670.9754403092</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.1719804140380298</v>
       </c>
     </row>
   </sheetData>
@@ -2282,7 +2386,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2314,10 +2418,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7320.864418528456</v>
+        <v>5884.676694597205</v>
       </c>
       <c r="C2" t="n">
-        <v>3.907617914099611e-05</v>
+        <v>0.0004963817851778788</v>
       </c>
     </row>
     <row r="3">
@@ -2327,10 +2431,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-433.1998071443047</v>
+        <v>-393.7276446326693</v>
       </c>
       <c r="C3" t="n">
-        <v>0.702507159678042</v>
+        <v>0.7210285134323703</v>
       </c>
     </row>
     <row r="4">
@@ -2340,166 +2444,179 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>289.8569389023642</v>
+        <v>292.1596297770743</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7994734957630499</v>
+        <v>0.7919619357594017</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>72.99173116144976</v>
+        <v>153.182551750336</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5512956329077374</v>
+        <v>0.5875999343009479</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-229.2295300244328</v>
+        <v>76.17487360592921</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4303346390536215</v>
+        <v>0.5256909676891723</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-40.09076630503323</v>
+        <v>-948.6897994389799</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002453073312918664</v>
+        <v>0.0008595427631849449</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-21.68273094189436</v>
+        <v>-27.11646409095727</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8609306134488258</v>
+        <v>0.03433665810980667</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>675.7024899723567</v>
+        <v>-15.48916747677301</v>
       </c>
       <c r="C9" t="n">
-        <v>3.434241864611918e-19</v>
+        <v>0.8950311156933757</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1366199982214479</v>
+        <v>669.6567857679078</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3384459359130554</v>
+        <v>9.954569151133076e-21</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0002306268097699036</v>
+        <v>-0.1917071973364585</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1362027358426891</v>
+        <v>0.1599159089755209</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-33.35205539092524</v>
+        <v>0.0003293311551220079</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01013427310934316</v>
+        <v>0.02513272260787276</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>8.457107266168068</v>
+        <v>-34.12297067750372</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2058683093840155</v>
+        <v>0.006158334885889709</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-7831.01302176345</v>
+        <v>12.7268666904515</v>
       </c>
       <c r="C14" t="n">
-        <v>0.002503353719437456</v>
+        <v>0.04469153775621655</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-816.292393842089</v>
+        <v>-8950.402723457632</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5444732857766267</v>
+        <v>0.0001632359976148162</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>556.6183208382463</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.6647529668877261</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>28523.65474750063</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.006597878871315938</v>
+      <c r="B17" t="n">
+        <v>26771.65874692739</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.006346177218077273</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_commute/Clermont.xlsx
+++ b/outputs/ML_Results/dist_commute/Clermont.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ04965846" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ05150288" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ05341088" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ05530148" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ05733544" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ05920599" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ06104221" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ06290257" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ06469288" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ01286529" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ01474906" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ01697599" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ01927790" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ02181912" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ02442750" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ02723926" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ03114919" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ03364522" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8161.887652361219</v>
+        <v>8107.79149412403</v>
       </c>
       <c r="C2" t="n">
-        <v>1.27798377547192e-05</v>
+        <v>1.468078232538187e-05</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1398.165825311433</v>
+        <v>-1306.932999264954</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2748614263229753</v>
+        <v>0.3071438388859073</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-766.5410444665235</v>
+        <v>-680.8016123180005</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5509536177166805</v>
+        <v>0.5962265763857987</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-426.0206417804396</v>
+        <v>-415.6908109489718</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1454283338789771</v>
+        <v>0.1555646936596201</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>85.79493238943682</v>
+        <v>84.06735085286147</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4930539812422633</v>
+        <v>0.502034407837336</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-788.0833260284054</v>
+        <v>-779.9617209237912</v>
       </c>
       <c r="C7" t="n">
-        <v>0.007120610003070836</v>
+        <v>0.007758891373142117</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-35.99610152950775</v>
+        <v>-36.80455358237282</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00652978560739986</v>
+        <v>0.005412427119657349</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>41.65708582376828</v>
+        <v>53.33205003563502</v>
       </c>
       <c r="C9" t="n">
-        <v>0.736549726280064</v>
+        <v>0.6662661601265769</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>610.6725885672456</v>
+        <v>605.7167585360946</v>
       </c>
       <c r="C10" t="n">
-        <v>1.698021179932676e-15</v>
+        <v>2.756935713414456e-15</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1842393443314545</v>
+        <v>-0.09470974189302424</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2007831482235445</v>
+        <v>0.47154081905945</v>
       </c>
     </row>
     <row r="12">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0002536939409632296</v>
+        <v>0.0001930987342945899</v>
       </c>
       <c r="C12" t="n">
-        <v>0.09510011605619584</v>
+        <v>0.1882546591673924</v>
       </c>
     </row>
     <row r="13">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-24.70747600300201</v>
+        <v>-25.23056065149223</v>
       </c>
       <c r="C13" t="n">
-        <v>0.05414532025495009</v>
+        <v>0.04930783701236627</v>
       </c>
     </row>
     <row r="14">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>12.93750067977293</v>
+        <v>12.21499844820712</v>
       </c>
       <c r="C14" t="n">
-        <v>0.05361796251329225</v>
+        <v>0.06788176987035989</v>
       </c>
     </row>
     <row r="15">
@@ -635,10 +635,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-7644.833253105158</v>
+        <v>-5344.293050516781</v>
       </c>
       <c r="C15" t="n">
-        <v>0.002391726271157509</v>
+        <v>0.007952941407035504</v>
       </c>
     </row>
     <row r="16">
@@ -648,23 +648,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1307.780167995285</v>
+        <v>-1382.503733120988</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3299071522316857</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>15653.20175311127</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1273484389723485</v>
+        <v>0.3029981491285845</v>
       </c>
     </row>
   </sheetData>
@@ -678,7 +665,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -710,10 +697,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6141.802452404683</v>
+        <v>6108.020844282249</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0008152993859002675</v>
+        <v>0.0008929780713915477</v>
       </c>
     </row>
     <row r="3">
@@ -723,10 +710,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-309.090655241533</v>
+        <v>-142.8136685026541</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7993590286423242</v>
+        <v>0.9065596101105498</v>
       </c>
     </row>
     <row r="4">
@@ -736,10 +723,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>462.4826196599651</v>
+        <v>620.6760351027469</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7051109581486592</v>
+        <v>0.6118021109609357</v>
       </c>
     </row>
     <row r="5">
@@ -749,10 +736,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-164.5661602495352</v>
+        <v>-154.4619952996728</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5810670125731617</v>
+        <v>0.605231487772796</v>
       </c>
     </row>
     <row r="6">
@@ -762,10 +749,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>57.81685530693134</v>
+        <v>51.36076145962956</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6497162794913648</v>
+        <v>0.6871891323934274</v>
       </c>
     </row>
     <row r="7">
@@ -775,10 +762,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-456.9782102751635</v>
+        <v>-444.8704739736528</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1246723839989181</v>
+        <v>0.1357439488961212</v>
       </c>
     </row>
     <row r="8">
@@ -788,10 +775,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-41.59708758340605</v>
+        <v>-44.07509099074579</v>
       </c>
       <c r="C8" t="n">
-        <v>0.002249498460245412</v>
+        <v>0.001201018148859046</v>
       </c>
     </row>
     <row r="9">
@@ -801,10 +788,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-5.17722898796373</v>
+        <v>0.8369328683833146</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9664380834110711</v>
+        <v>0.9945834406895453</v>
       </c>
     </row>
     <row r="10">
@@ -814,10 +801,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>658.9964608392775</v>
+        <v>654.7228872459598</v>
       </c>
       <c r="C10" t="n">
-        <v>8.852923896190928e-19</v>
+        <v>1.668664999399019e-18</v>
       </c>
     </row>
     <row r="11">
@@ -827,10 +814,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.2281951467377259</v>
+        <v>-0.09438484834570247</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1262558846489797</v>
+        <v>0.496535106483602</v>
       </c>
     </row>
     <row r="12">
@@ -840,10 +827,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0002241575695645711</v>
+        <v>0.0001361610897960043</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1578312736287918</v>
+        <v>0.3789435515956225</v>
       </c>
     </row>
     <row r="13">
@@ -853,10 +840,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-20.3120026015943</v>
+        <v>-20.7812373894699</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1171513596632158</v>
+        <v>0.1096535089898647</v>
       </c>
     </row>
     <row r="14">
@@ -866,10 +853,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>19.14798934218299</v>
+        <v>18.31535075258573</v>
       </c>
       <c r="C14" t="n">
-        <v>0.006832045824105597</v>
+        <v>0.009732084818449152</v>
       </c>
     </row>
     <row r="15">
@@ -879,10 +866,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-8034.666533936335</v>
+        <v>-4505.129645497132</v>
       </c>
       <c r="C15" t="n">
-        <v>0.002012079149192532</v>
+        <v>0.03636134294571537</v>
       </c>
     </row>
     <row r="16">
@@ -892,23 +879,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1088.817365120318</v>
+        <v>-1173.340754658439</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4193513087861768</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>25775.00996015057</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.01582944101513317</v>
+        <v>0.3850404423424703</v>
       </c>
     </row>
   </sheetData>
@@ -922,7 +896,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -954,10 +928,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5764.720620284255</v>
+        <v>5723.465560492838</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0009431222672642935</v>
+        <v>0.001030851463682263</v>
       </c>
     </row>
     <row r="3">
@@ -967,10 +941,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-36.64756594043325</v>
+        <v>73.62695349008482</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9741387948632152</v>
+        <v>0.9479920439552488</v>
       </c>
     </row>
     <row r="4">
@@ -980,10 +954,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>572.4060799751699</v>
+        <v>684.1958217598481</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6144013043960526</v>
+        <v>0.5464305400582229</v>
       </c>
     </row>
     <row r="5">
@@ -993,10 +967,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-529.715541304681</v>
+        <v>-528.8853678841035</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07050980380527289</v>
+        <v>0.0711103824815312</v>
       </c>
     </row>
     <row r="6">
@@ -1006,10 +980,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-144.9831056680139</v>
+        <v>-149.4172244936854</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2529718318118835</v>
+        <v>0.2388965750133444</v>
       </c>
     </row>
     <row r="7">
@@ -1019,10 +993,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-347.0287735605451</v>
+        <v>-337.6121855300959</v>
       </c>
       <c r="C7" t="n">
-        <v>0.232628480234476</v>
+        <v>0.2457009225222246</v>
       </c>
     </row>
     <row r="8">
@@ -1032,10 +1006,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-36.58467148586728</v>
+        <v>-37.52536528104913</v>
       </c>
       <c r="C8" t="n">
-        <v>0.005236581353527663</v>
+        <v>0.004166563314630006</v>
       </c>
     </row>
     <row r="9">
@@ -1045,10 +1019,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-112.6939055061212</v>
+        <v>-110.5485430590672</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3488096257187739</v>
+        <v>0.3582973547241163</v>
       </c>
     </row>
     <row r="10">
@@ -1058,10 +1032,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>731.5832816989098</v>
+        <v>733.5969747786539</v>
       </c>
       <c r="C10" t="n">
-        <v>4.206571240195249e-23</v>
+        <v>3.358392550825183e-23</v>
       </c>
     </row>
     <row r="11">
@@ -1071,10 +1045,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.05136194989627978</v>
+        <v>0.03121191694870817</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7144175444530962</v>
+        <v>0.8093098593504195</v>
       </c>
     </row>
     <row r="12">
@@ -1084,10 +1058,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0002162344074677076</v>
+        <v>0.0001663708488957529</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1459339931194449</v>
+        <v>0.2513951117966451</v>
       </c>
     </row>
     <row r="13">
@@ -1097,10 +1071,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-30.35953296268702</v>
+        <v>-31.40447068244496</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01764253843090191</v>
+        <v>0.01402167833276626</v>
       </c>
     </row>
     <row r="14">
@@ -1110,10 +1084,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>23.48811289819704</v>
+        <v>22.75352627998161</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0005076708376750411</v>
+        <v>0.0007371693004362331</v>
       </c>
     </row>
     <row r="15">
@@ -1123,10 +1097,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-7160.60453567625</v>
+        <v>-4982.797441191251</v>
       </c>
       <c r="C15" t="n">
-        <v>0.00344347265832722</v>
+        <v>0.01168778150144497</v>
       </c>
     </row>
     <row r="16">
@@ -1136,23 +1110,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-591.5088378149007</v>
+        <v>-632.7402228593778</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6533534997311691</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>15395.34172645072</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1312335696432009</v>
+        <v>0.6310559904041944</v>
       </c>
     </row>
   </sheetData>
@@ -1166,7 +1127,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1198,10 +1159,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6806.804015639775</v>
+        <v>6656.113537603745</v>
       </c>
       <c r="C2" t="n">
-        <v>9.064999744135241e-05</v>
+        <v>0.0001263854249093745</v>
       </c>
     </row>
     <row r="3">
@@ -1211,10 +1172,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-236.2403818018648</v>
+        <v>-137.7598115137548</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8350439508897043</v>
+        <v>0.9032206523175655</v>
       </c>
     </row>
     <row r="4">
@@ -1224,10 +1185,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278.0640124870027</v>
+        <v>366.7153097550237</v>
       </c>
       <c r="C4" t="n">
-        <v>0.807095978814838</v>
+        <v>0.7471989016321334</v>
       </c>
     </row>
     <row r="5">
@@ -1237,10 +1198,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-338.2477278808063</v>
+        <v>-339.8640722969988</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2460060454030957</v>
+        <v>0.2439790315346618</v>
       </c>
     </row>
     <row r="6">
@@ -1250,10 +1211,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.582879812345425</v>
+        <v>-3.167680718212253</v>
       </c>
       <c r="C6" t="n">
-        <v>0.963598969534784</v>
+        <v>0.9793493937574589</v>
       </c>
     </row>
     <row r="7">
@@ -1263,10 +1224,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-409.0637134127342</v>
+        <v>-389.2356184853369</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1602934487853716</v>
+        <v>0.1812426348153828</v>
       </c>
     </row>
     <row r="8">
@@ -1276,10 +1237,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-29.19784586580887</v>
+        <v>-29.64570336192754</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02580353973624199</v>
+        <v>0.02364592880518026</v>
       </c>
     </row>
     <row r="9">
@@ -1289,10 +1250,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>13.13194646792231</v>
+        <v>20.84685577406913</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9147082490090501</v>
+        <v>0.8649285414374711</v>
       </c>
     </row>
     <row r="10">
@@ -1302,10 +1263,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>687.3155275375059</v>
+        <v>685.0225833874097</v>
       </c>
       <c r="C10" t="n">
-        <v>6.936092742336201e-21</v>
+        <v>9.390858261436722e-21</v>
       </c>
     </row>
     <row r="11">
@@ -1315,10 +1276,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1594374907490713</v>
+        <v>-0.09102669635933471</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2514324267509619</v>
+        <v>0.4861083121519957</v>
       </c>
     </row>
     <row r="12">
@@ -1328,10 +1289,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0002855589995821262</v>
+        <v>0.0002432630291390613</v>
       </c>
       <c r="C12" t="n">
-        <v>0.05663967291070517</v>
+        <v>0.09783061092049407</v>
       </c>
     </row>
     <row r="13">
@@ -1341,10 +1302,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-25.59201526192288</v>
+        <v>-25.38683380765924</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0478202889317704</v>
+        <v>0.04972652375241655</v>
       </c>
     </row>
     <row r="14">
@@ -1354,10 +1315,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>8.942081890711172</v>
+        <v>8.70302259548178</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1951779257538632</v>
+        <v>0.2074640035450882</v>
       </c>
     </row>
     <row r="15">
@@ -1367,10 +1328,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-8344.856683410648</v>
+        <v>-6186.098604287297</v>
       </c>
       <c r="C15" t="n">
-        <v>0.001216125628383027</v>
+        <v>0.003181450877069897</v>
       </c>
     </row>
     <row r="16">
@@ -1380,23 +1341,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1277.432105160499</v>
+        <v>-1312.809812310666</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3342931196422497</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>15159.45669279989</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1498951325678966</v>
+        <v>0.3212325549928584</v>
       </c>
     </row>
   </sheetData>
@@ -1410,7 +1358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1442,10 +1390,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7655.605950988116</v>
+        <v>7601.883933648948</v>
       </c>
       <c r="C2" t="n">
-        <v>1.716118524036682e-05</v>
+        <v>2.034073081783788e-05</v>
       </c>
     </row>
     <row r="3">
@@ -1455,10 +1403,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1470.388142724775</v>
+        <v>-1395.555780302995</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2348913604897561</v>
+        <v>0.2603298678398591</v>
       </c>
     </row>
     <row r="4">
@@ -1468,10 +1416,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-588.7801261863958</v>
+        <v>-532.1204872717969</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6355033729314961</v>
+        <v>0.6689204030574996</v>
       </c>
     </row>
     <row r="5">
@@ -1481,10 +1429,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-430.7573924769368</v>
+        <v>-417.9865379436376</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1421986144084713</v>
+        <v>0.1551286048440678</v>
       </c>
     </row>
     <row r="6">
@@ -1494,10 +1442,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>84.17061592866904</v>
+        <v>75.90981449986248</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4929109350696711</v>
+        <v>0.5369365488802637</v>
       </c>
     </row>
     <row r="7">
@@ -1507,10 +1455,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-434.323344103697</v>
+        <v>-410.3389315742546</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1371874751260045</v>
+        <v>0.1607747398032973</v>
       </c>
     </row>
     <row r="8">
@@ -1520,10 +1468,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-45.20593340238081</v>
+        <v>-46.35644497246572</v>
       </c>
       <c r="C8" t="n">
-        <v>0.000583513535524886</v>
+        <v>0.0004285306955485761</v>
       </c>
     </row>
     <row r="9">
@@ -1533,10 +1481,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-95.88986570388859</v>
+        <v>-82.65370853099596</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4358202372330123</v>
+        <v>0.5021366704020022</v>
       </c>
     </row>
     <row r="10">
@@ -1546,10 +1494,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>688.6886120632356</v>
+        <v>684.4862015851839</v>
       </c>
       <c r="C10" t="n">
-        <v>4.73066082089032e-21</v>
+        <v>9.176898460373488e-21</v>
       </c>
     </row>
     <row r="11">
@@ -1559,10 +1507,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1875365889321516</v>
+        <v>-0.06658473461458797</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1856594319995124</v>
+        <v>0.6140338784516276</v>
       </c>
     </row>
     <row r="12">
@@ -1572,10 +1520,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0002358715408836852</v>
+        <v>0.0001584256084035575</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1221703468510578</v>
+        <v>0.2882137991103383</v>
       </c>
     </row>
     <row r="13">
@@ -1585,10 +1533,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-24.02098212136774</v>
+        <v>-23.97476903620487</v>
       </c>
       <c r="C13" t="n">
-        <v>0.06089232235575671</v>
+        <v>0.06189763145746095</v>
       </c>
     </row>
     <row r="14">
@@ -1598,10 +1546,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>18.75343464929254</v>
+        <v>18.02677533389377</v>
       </c>
       <c r="C14" t="n">
-        <v>0.004181878417432766</v>
+        <v>0.005936339461781096</v>
       </c>
     </row>
     <row r="15">
@@ -1611,10 +1559,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-8389.362760125321</v>
+        <v>-5154.02398506536</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0007803233310045263</v>
+        <v>0.01294290238210435</v>
       </c>
     </row>
     <row r="16">
@@ -1624,23 +1572,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1234.128045552804</v>
+        <v>-1306.781366185695</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3613311543219103</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>23878.03516992361</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.02008477423758532</v>
+        <v>0.3345863983067404</v>
       </c>
     </row>
   </sheetData>
@@ -1654,7 +1589,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1686,10 +1621,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6319.166683375961</v>
+        <v>6182.975756168061</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001531457741637854</v>
+        <v>0.001919797414197529</v>
       </c>
     </row>
     <row r="3">
@@ -1699,10 +1634,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>810.0799347870261</v>
+        <v>990.6724229637845</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5884184579770418</v>
+        <v>0.5069373113203806</v>
       </c>
     </row>
     <row r="4">
@@ -1712,10 +1647,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1429.777090539538</v>
+        <v>1601.86579339084</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3401648943399462</v>
+        <v>0.2840473082519732</v>
       </c>
     </row>
     <row r="5">
@@ -1725,10 +1660,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-547.8126714652415</v>
+        <v>-541.5190356884061</v>
       </c>
       <c r="C5" t="n">
-        <v>0.06246913956595666</v>
+        <v>0.06564906984344067</v>
       </c>
     </row>
     <row r="6">
@@ -1738,10 +1673,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>24.50482887707073</v>
+        <v>20.48010587375288</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8410301673574463</v>
+        <v>0.8669079546506884</v>
       </c>
     </row>
     <row r="7">
@@ -1751,10 +1686,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-698.717696424383</v>
+        <v>-694.2570546282964</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01654606501480915</v>
+        <v>0.01730009359411828</v>
       </c>
     </row>
     <row r="8">
@@ -1764,10 +1699,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-50.44166228316822</v>
+        <v>-51.46826332040808</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0001231570833269863</v>
+        <v>8.823932730070204e-05</v>
       </c>
     </row>
     <row r="9">
@@ -1777,10 +1712,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-47.67937638319419</v>
+        <v>-44.39062548066719</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6951149755759545</v>
+        <v>0.7152894909472354</v>
       </c>
     </row>
     <row r="10">
@@ -1790,10 +1725,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>655.4520495226072</v>
+        <v>656.2174574939249</v>
       </c>
       <c r="C10" t="n">
-        <v>3.021070724228157e-18</v>
+        <v>2.871476900319759e-18</v>
       </c>
     </row>
     <row r="11">
@@ -1803,10 +1738,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1105135616277938</v>
+        <v>-0.03349065501554956</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4368428422282632</v>
+        <v>0.8001119211766007</v>
       </c>
     </row>
     <row r="12">
@@ -1816,10 +1751,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0001923610045361228</v>
+        <v>0.0001428906724455552</v>
       </c>
       <c r="C12" t="n">
-        <v>0.203889494915015</v>
+        <v>0.3333243410271655</v>
       </c>
     </row>
     <row r="13">
@@ -1829,10 +1764,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-29.38877307896783</v>
+        <v>-29.55001541149808</v>
       </c>
       <c r="C13" t="n">
-        <v>0.02020350568362153</v>
+        <v>0.01958900755150255</v>
       </c>
     </row>
     <row r="14">
@@ -1842,10 +1777,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>16.44462172066445</v>
+        <v>15.94078574708222</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0116160970900742</v>
+        <v>0.01434242837734704</v>
       </c>
     </row>
     <row r="15">
@@ -1855,10 +1790,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-7672.205218856945</v>
+        <v>-5616.567906728471</v>
       </c>
       <c r="C15" t="n">
-        <v>0.00196498856631186</v>
+        <v>0.006118737165772738</v>
       </c>
     </row>
     <row r="16">
@@ -1868,23 +1803,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-398.4829469145099</v>
+        <v>-461.3630064991947</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7670833778606152</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>14906.90332846326</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1399294976012469</v>
+        <v>0.7316580831978318</v>
       </c>
     </row>
   </sheetData>
@@ -1898,7 +1820,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1930,10 +1852,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7761.406373707539</v>
+        <v>7678.88435327543</v>
       </c>
       <c r="C2" t="n">
-        <v>1.287858368063518e-05</v>
+        <v>1.660642426896202e-05</v>
       </c>
     </row>
     <row r="3">
@@ -1943,10 +1865,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-210.2556215998876</v>
+        <v>-39.26018178176264</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8547770109635885</v>
+        <v>0.9727589803451728</v>
       </c>
     </row>
     <row r="4">
@@ -1956,10 +1878,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>148.07928984403</v>
+        <v>329.8133515955739</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8979781734384513</v>
+        <v>0.7753446434175499</v>
       </c>
     </row>
     <row r="5">
@@ -1969,10 +1891,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-214.845070487853</v>
+        <v>-229.8377126387496</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4680019506866484</v>
+        <v>0.4385856848642874</v>
       </c>
     </row>
     <row r="6">
@@ -1982,10 +1904,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>28.5665338317644</v>
+        <v>17.88699719538189</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8233290802037726</v>
+        <v>0.8890357242873141</v>
       </c>
     </row>
     <row r="7">
@@ -1995,10 +1917,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-407.4205605921757</v>
+        <v>-407.1072656835294</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1675348548771209</v>
+        <v>0.1689207925094081</v>
       </c>
     </row>
     <row r="8">
@@ -2008,10 +1930,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-41.58227315383535</v>
+        <v>-43.25011373147554</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001983554020545768</v>
+        <v>0.001318407824789867</v>
       </c>
     </row>
     <row r="9">
@@ -2021,10 +1943,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>28.83369959305605</v>
+        <v>36.78130486928811</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8146842979285704</v>
+        <v>0.7654431739241735</v>
       </c>
     </row>
     <row r="10">
@@ -2034,10 +1956,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>579.6431603847659</v>
+        <v>581.145735226951</v>
       </c>
       <c r="C10" t="n">
-        <v>3.79702770573111e-15</v>
+        <v>3.764218005463603e-15</v>
       </c>
     </row>
     <row r="11">
@@ -2047,10 +1969,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1927819321621305</v>
+        <v>-0.06163411073901652</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1696105168809295</v>
+        <v>0.6381600013215039</v>
       </c>
     </row>
     <row r="12">
@@ -2060,10 +1982,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0002103840696554012</v>
+        <v>0.0001309071610471084</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1646831429824636</v>
+        <v>0.3782193779223093</v>
       </c>
     </row>
     <row r="13">
@@ -2073,10 +1995,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-26.5399039582022</v>
+        <v>-26.8493005736375</v>
       </c>
       <c r="C13" t="n">
-        <v>0.04175256200515718</v>
+        <v>0.03991356433460075</v>
       </c>
     </row>
     <row r="14">
@@ -2086,10 +2008,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>11.21895884226373</v>
+        <v>10.21392672388043</v>
       </c>
       <c r="C14" t="n">
-        <v>0.09638014285943236</v>
+        <v>0.130369548838353</v>
       </c>
     </row>
     <row r="15">
@@ -2099,10 +2021,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-8985.421204612538</v>
+        <v>-5412.545032579486</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0004478978821212637</v>
+        <v>0.01185888569294749</v>
       </c>
     </row>
     <row r="16">
@@ -2112,23 +2034,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1027.658876933838</v>
+        <v>-1144.135853527685</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4472672449332448</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>26411.7680611033</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.01015473253822788</v>
+        <v>0.3984131048185612</v>
       </c>
     </row>
   </sheetData>
@@ -2142,7 +2051,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2174,10 +2083,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5061.290221598843</v>
+        <v>4994.193275059452</v>
       </c>
       <c r="C2" t="n">
-        <v>0.004340662807778731</v>
+        <v>0.004883688921709264</v>
       </c>
     </row>
     <row r="3">
@@ -2187,10 +2096,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>939.4657102214805</v>
+        <v>1049.871000727781</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4275840772896961</v>
+        <v>0.3743992906195381</v>
       </c>
     </row>
     <row r="4">
@@ -2200,10 +2109,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1546.242166201513</v>
+        <v>1662.564441733777</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1937232542624609</v>
+        <v>0.1613979462118431</v>
       </c>
     </row>
     <row r="5">
@@ -2213,10 +2122,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-203.030682100683</v>
+        <v>-192.5154816557696</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4819187735095904</v>
+        <v>0.504907977248253</v>
       </c>
     </row>
     <row r="6">
@@ -2226,10 +2135,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-41.44068544370424</v>
+        <v>-43.36586639872426</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7353726130777439</v>
+        <v>0.7236568729919812</v>
       </c>
     </row>
     <row r="7">
@@ -2239,10 +2148,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-533.8998189300592</v>
+        <v>-513.1090618651959</v>
       </c>
       <c r="C7" t="n">
-        <v>0.06492174023252967</v>
+        <v>0.07576583722238855</v>
       </c>
     </row>
     <row r="8">
@@ -2252,10 +2161,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-47.35501999157245</v>
+        <v>-48.32410743605192</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0003397983414135778</v>
+        <v>0.0002525316921247459</v>
       </c>
     </row>
     <row r="9">
@@ -2265,10 +2174,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>48.91236390469101</v>
+        <v>51.96694793789638</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6820703749565766</v>
+        <v>0.6634691229017431</v>
       </c>
     </row>
     <row r="10">
@@ -2278,10 +2187,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>704.9473633721501</v>
+        <v>706.7816169675023</v>
       </c>
       <c r="C10" t="n">
-        <v>1.541907557570832e-22</v>
+        <v>1.232960710232935e-22</v>
       </c>
     </row>
     <row r="11">
@@ -2291,10 +2200,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1847959950933127</v>
+        <v>-0.1148918948365502</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1851832544609771</v>
+        <v>0.3759510430868861</v>
       </c>
     </row>
     <row r="12">
@@ -2304,10 +2213,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0003324222348257026</v>
+        <v>0.000289961051641649</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0251120165505245</v>
+        <v>0.04575323804363701</v>
       </c>
     </row>
     <row r="13">
@@ -2317,10 +2226,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-24.04183279035022</v>
+        <v>-24.04095572216698</v>
       </c>
       <c r="C13" t="n">
-        <v>0.05783903972719634</v>
+        <v>0.05794413756884797</v>
       </c>
     </row>
     <row r="14">
@@ -2330,10 +2239,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>14.86917623436837</v>
+        <v>14.25642782071451</v>
       </c>
       <c r="C14" t="n">
-        <v>0.02143957724261795</v>
+        <v>0.02710136253105984</v>
       </c>
     </row>
     <row r="15">
@@ -2343,10 +2252,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-8085.766996010845</v>
+        <v>-6278.962932771301</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0008058568151461128</v>
+        <v>0.001846940868596341</v>
       </c>
     </row>
     <row r="16">
@@ -2356,23 +2265,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-99.29397436634088</v>
+        <v>-215.1311790247216</v>
       </c>
       <c r="C16" t="n">
-        <v>0.941187875932344</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>13670.9754403092</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1719804140380298</v>
+        <v>0.8728011016413941</v>
       </c>
     </row>
   </sheetData>
@@ -2386,7 +2282,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2418,10 +2314,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5884.676694597205</v>
+        <v>5761.463751122124</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0004963817851778788</v>
+        <v>0.0006697308567854631</v>
       </c>
     </row>
     <row r="3">
@@ -2431,10 +2327,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-393.7276446326693</v>
+        <v>-228.0984724700802</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7210285134323703</v>
+        <v>0.8363264476770841</v>
       </c>
     </row>
     <row r="4">
@@ -2444,10 +2340,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>292.1596297770743</v>
+        <v>459.8077109695751</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7919619357594017</v>
+        <v>0.6784659039072395</v>
       </c>
     </row>
     <row r="5">
@@ -2457,10 +2353,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>153.182551750336</v>
+        <v>157.5247714939001</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5875999343009479</v>
+        <v>0.5781404850632708</v>
       </c>
     </row>
     <row r="6">
@@ -2470,10 +2366,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>76.17487360592921</v>
+        <v>74.47349836476144</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5256909676891723</v>
+        <v>0.5361395658842016</v>
       </c>
     </row>
     <row r="7">
@@ -2483,10 +2379,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-948.6897994389799</v>
+        <v>-917.3049915703209</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0008595427631849449</v>
+        <v>0.001297274479267625</v>
       </c>
     </row>
     <row r="8">
@@ -2496,10 +2392,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-27.11646409095727</v>
+        <v>-28.61496368240757</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03433665810980667</v>
+        <v>0.02585014039525197</v>
       </c>
     </row>
     <row r="9">
@@ -2509,10 +2405,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-15.48916747677301</v>
+        <v>-3.485599488539407</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8950311156933757</v>
+        <v>0.9763643606461812</v>
       </c>
     </row>
     <row r="10">
@@ -2522,10 +2418,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>669.6567857679078</v>
+        <v>663.8033624888019</v>
       </c>
       <c r="C10" t="n">
-        <v>9.954569151133076e-21</v>
+        <v>2.541161275892645e-20</v>
       </c>
     </row>
     <row r="11">
@@ -2535,10 +2431,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1917071973364585</v>
+        <v>-0.05325087493394566</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1599159089755209</v>
+        <v>0.6749153642407636</v>
       </c>
     </row>
     <row r="12">
@@ -2548,10 +2444,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0003293311551220079</v>
+        <v>0.0002396905748881856</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02513272260787276</v>
+        <v>0.09530451632400377</v>
       </c>
     </row>
     <row r="13">
@@ -2561,10 +2457,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-34.12297067750372</v>
+        <v>-34.4155763945943</v>
       </c>
       <c r="C13" t="n">
-        <v>0.006158334885889709</v>
+        <v>0.005871464536617652</v>
       </c>
     </row>
     <row r="14">
@@ -2574,10 +2470,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>12.7268666904515</v>
+        <v>11.79383154126538</v>
       </c>
       <c r="C14" t="n">
-        <v>0.04469153775621655</v>
+        <v>0.06317057932642964</v>
       </c>
     </row>
     <row r="15">
@@ -2587,10 +2483,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-8950.402723457632</v>
+        <v>-5269.125730520283</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0001632359976148162</v>
+        <v>0.007032273464035378</v>
       </c>
     </row>
     <row r="16">
@@ -2600,23 +2496,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>556.6183208382463</v>
+        <v>452.5682265967487</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6647529668877261</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>26771.65874692739</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.006346177218077273</v>
+        <v>0.7252107497421986</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_commute/Clermont.xlsx
+++ b/outputs/ML_Results/dist_commute/Clermont.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ01286529" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ01474906" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ01697599" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ01927790" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ02181912" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ02442750" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ02723926" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ03114919" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ03364522" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ36364552" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ36568885" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ36791635" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ37043484" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ37281066" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ37501354" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ37737959" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ37974363" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ38195361" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8107.79149412403</v>
+        <v>6590.556893378081</v>
       </c>
       <c r="C2" t="n">
-        <v>1.468078232538187e-05</v>
+        <v>0.0005356684521131955</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1306.932999264954</v>
+        <v>364.0726676624257</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3071438388859073</v>
+        <v>0.7814602032367901</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-680.8016123180005</v>
+        <v>812.1887578526456</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5962265763857987</v>
+        <v>0.5366632974477106</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-415.6908109489718</v>
+        <v>-389.4938575634466</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1555646936596201</v>
+        <v>0.2103133591382408</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>84.06735085286147</v>
+        <v>72.13884415386732</v>
       </c>
       <c r="C6" t="n">
-        <v>0.502034407837336</v>
+        <v>0.5828219205919364</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-779.9617209237912</v>
+        <v>-607.9216975724634</v>
       </c>
       <c r="C7" t="n">
-        <v>0.007758891373142117</v>
+        <v>0.05080317800354926</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-36.80455358237282</v>
+        <v>-46.86508824289737</v>
       </c>
       <c r="C8" t="n">
-        <v>0.005412427119657349</v>
+        <v>0.0007766282736036327</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>53.33205003563502</v>
+        <v>76.55328739420764</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6662661601265769</v>
+        <v>0.5674124668464999</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>605.7167585360946</v>
+        <v>588.5006169139917</v>
       </c>
       <c r="C10" t="n">
-        <v>2.756935713414456e-15</v>
+        <v>1.16072517790715e-13</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.09470974189302424</v>
+        <v>-0.0717519736061949</v>
       </c>
       <c r="C11" t="n">
-        <v>0.47154081905945</v>
+        <v>0.6153699801996916</v>
       </c>
     </row>
     <row r="12">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0001930987342945899</v>
+        <v>0.0001960142218852321</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1882546591673924</v>
+        <v>0.2187769583013826</v>
       </c>
     </row>
     <row r="13">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-25.23056065149223</v>
+        <v>-40.53975495749921</v>
       </c>
       <c r="C13" t="n">
-        <v>0.04930783701236627</v>
+        <v>0.002970254542357752</v>
       </c>
     </row>
     <row r="14">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>12.21499844820712</v>
+        <v>14.06191618406176</v>
       </c>
       <c r="C14" t="n">
-        <v>0.06788176987035989</v>
+        <v>0.06243638591532846</v>
       </c>
     </row>
     <row r="15">
@@ -635,10 +635,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-5344.293050516781</v>
+        <v>-3229.626977234399</v>
       </c>
       <c r="C15" t="n">
-        <v>0.007952941407035504</v>
+        <v>0.1760270138400477</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1382.503733120988</v>
+        <v>430.7094687134681</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3029981491285845</v>
+        <v>0.7679889861415548</v>
       </c>
     </row>
   </sheetData>
@@ -697,10 +697,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6108.020844282249</v>
+        <v>5713.091290173001</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0008929780713915477</v>
+        <v>0.001630548731345934</v>
       </c>
     </row>
     <row r="3">
@@ -710,10 +710,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-142.8136685026541</v>
+        <v>-9.145062678815975</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9065596101105498</v>
+        <v>0.9939701191891821</v>
       </c>
     </row>
     <row r="4">
@@ -723,10 +723,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>620.6760351027469</v>
+        <v>495.1484538279606</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6118021109609357</v>
+        <v>0.6823663956619215</v>
       </c>
     </row>
     <row r="5">
@@ -736,10 +736,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-154.4619952996728</v>
+        <v>-174.3213379440327</v>
       </c>
       <c r="C5" t="n">
-        <v>0.605231487772796</v>
+        <v>0.5731325783792114</v>
       </c>
     </row>
     <row r="6">
@@ -749,10 +749,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>51.36076145962956</v>
+        <v>25.37240563477761</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6871891323934274</v>
+        <v>0.8427175882699013</v>
       </c>
     </row>
     <row r="7">
@@ -762,10 +762,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-444.8704739736528</v>
+        <v>-846.194908167913</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1357439488961212</v>
+        <v>0.00608544814986693</v>
       </c>
     </row>
     <row r="8">
@@ -775,10 +775,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-44.07509099074579</v>
+        <v>-42.80441931345823</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001201018148859046</v>
+        <v>0.001467574788862512</v>
       </c>
     </row>
     <row r="9">
@@ -788,10 +788,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.8369328683833146</v>
+        <v>-73.15925983392658</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9945834406895453</v>
+        <v>0.5782510744899477</v>
       </c>
     </row>
     <row r="10">
@@ -801,10 +801,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>654.7228872459598</v>
+        <v>672.6626968036387</v>
       </c>
       <c r="C10" t="n">
-        <v>1.668664999399019e-18</v>
+        <v>1.112958617522386e-18</v>
       </c>
     </row>
     <row r="11">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.09438484834570247</v>
+        <v>-0.1286363290522387</v>
       </c>
       <c r="C11" t="n">
-        <v>0.496535106483602</v>
+        <v>0.3326971115354008</v>
       </c>
     </row>
     <row r="12">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0001361610897960043</v>
+        <v>0.0002662147208456877</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3789435515956225</v>
+        <v>0.07559582215104872</v>
       </c>
     </row>
     <row r="13">
@@ -840,10 +840,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-20.7812373894699</v>
+        <v>-30.32396054832291</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1096535089898647</v>
+        <v>0.0254471318587915</v>
       </c>
     </row>
     <row r="14">
@@ -853,10 +853,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>18.31535075258573</v>
+        <v>21.84187457500108</v>
       </c>
       <c r="C14" t="n">
-        <v>0.009732084818449152</v>
+        <v>0.00439309157362507</v>
       </c>
     </row>
     <row r="15">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-4505.129645497132</v>
+        <v>-4738.696324804907</v>
       </c>
       <c r="C15" t="n">
-        <v>0.03636134294571537</v>
+        <v>0.03441554535474797</v>
       </c>
     </row>
     <row r="16">
@@ -879,10 +879,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1173.340754658439</v>
+        <v>471.7581036246165</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3850404423424703</v>
+        <v>0.7425184146427419</v>
       </c>
     </row>
   </sheetData>
@@ -928,10 +928,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5723.465560492838</v>
+        <v>4126.828348526788</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001030851463682263</v>
+        <v>0.02727916726156284</v>
       </c>
     </row>
     <row r="3">
@@ -941,10 +941,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>73.62695349008482</v>
+        <v>299.2707786742919</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9479920439552488</v>
+        <v>0.8060867418118944</v>
       </c>
     </row>
     <row r="4">
@@ -954,10 +954,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>684.1958217598481</v>
+        <v>704.6885932453486</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5464305400582229</v>
+        <v>0.563520343629407</v>
       </c>
     </row>
     <row r="5">
@@ -967,10 +967,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-528.8853678841035</v>
+        <v>-474.8727094945946</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0711103824815312</v>
+        <v>0.1254316483343314</v>
       </c>
     </row>
     <row r="6">
@@ -980,10 +980,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-149.4172244936854</v>
+        <v>0.4553717603271537</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2388965750133444</v>
+        <v>0.9972368783157246</v>
       </c>
     </row>
     <row r="7">
@@ -993,10 +993,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-337.6121855300959</v>
+        <v>-674.4498939722937</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2457009225222246</v>
+        <v>0.03063237445950029</v>
       </c>
     </row>
     <row r="8">
@@ -1006,10 +1006,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-37.52536528104913</v>
+        <v>-32.0460540280986</v>
       </c>
       <c r="C8" t="n">
-        <v>0.004166563314630006</v>
+        <v>0.02204120006266711</v>
       </c>
     </row>
     <row r="9">
@@ -1019,10 +1019,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-110.5485430590672</v>
+        <v>35.73084719448493</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3582973547241163</v>
+        <v>0.7850013580724094</v>
       </c>
     </row>
     <row r="10">
@@ -1032,10 +1032,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>733.5969747786539</v>
+        <v>634.7780352777449</v>
       </c>
       <c r="C10" t="n">
-        <v>3.358392550825183e-23</v>
+        <v>2.124544611390109e-16</v>
       </c>
     </row>
     <row r="11">
@@ -1045,10 +1045,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.03121191694870817</v>
+        <v>-0.1252706222682481</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8093098593504195</v>
+        <v>0.3497779368023975</v>
       </c>
     </row>
     <row r="12">
@@ -1058,10 +1058,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0001663708488957529</v>
+        <v>0.0003018139888041557</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2513951117966451</v>
+        <v>0.04507107476585468</v>
       </c>
     </row>
     <row r="13">
@@ -1071,10 +1071,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-31.40447068244496</v>
+        <v>-35.05371707408419</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01402167833276626</v>
+        <v>0.00891525294267366</v>
       </c>
     </row>
     <row r="14">
@@ -1084,10 +1084,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>22.75352627998161</v>
+        <v>33.5143145549079</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0007371693004362331</v>
+        <v>2.074271182652433e-05</v>
       </c>
     </row>
     <row r="15">
@@ -1097,10 +1097,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-4982.797441191251</v>
+        <v>-5390.692363414546</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01168778150144497</v>
+        <v>0.01346187400955703</v>
       </c>
     </row>
     <row r="16">
@@ -1110,10 +1110,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-632.7402228593778</v>
+        <v>1088.716836976989</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6310559904041944</v>
+        <v>0.4497046004781727</v>
       </c>
     </row>
   </sheetData>
@@ -1159,10 +1159,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6656.113537603745</v>
+        <v>5712.707307362978</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001263854249093745</v>
+        <v>0.003183808811120226</v>
       </c>
     </row>
     <row r="3">
@@ -1172,10 +1172,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-137.7598115137548</v>
+        <v>1107.365378814072</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9032206523175655</v>
+        <v>0.4326442845130654</v>
       </c>
     </row>
     <row r="4">
@@ -1185,10 +1185,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>366.7153097550237</v>
+        <v>1695.568306876038</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7471989016321334</v>
+        <v>0.2290196620127795</v>
       </c>
     </row>
     <row r="5">
@@ -1198,10 +1198,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-339.8640722969988</v>
+        <v>-92.93516386891694</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2439790315346618</v>
+        <v>0.768423153948687</v>
       </c>
     </row>
     <row r="6">
@@ -1211,10 +1211,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.167680718212253</v>
+        <v>53.908860014046</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9793493937574589</v>
+        <v>0.6856954764636234</v>
       </c>
     </row>
     <row r="7">
@@ -1224,10 +1224,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-389.2356184853369</v>
+        <v>-930.2173226294364</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1812426348153828</v>
+        <v>0.002859242957304503</v>
       </c>
     </row>
     <row r="8">
@@ -1237,10 +1237,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-29.64570336192754</v>
+        <v>-51.11578103400532</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02364592880518026</v>
+        <v>0.0002667987647143456</v>
       </c>
     </row>
     <row r="9">
@@ -1250,10 +1250,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20.84685577406913</v>
+        <v>11.47606745399365</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8649285414374711</v>
+        <v>0.9313563803234528</v>
       </c>
     </row>
     <row r="10">
@@ -1263,10 +1263,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>685.0225833874097</v>
+        <v>661.8849088782239</v>
       </c>
       <c r="C10" t="n">
-        <v>9.390858261436722e-21</v>
+        <v>3.774521664551327e-17</v>
       </c>
     </row>
     <row r="11">
@@ -1276,10 +1276,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.09102669635933471</v>
+        <v>-0.07558646001135354</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4861083121519957</v>
+        <v>0.5889085294684437</v>
       </c>
     </row>
     <row r="12">
@@ -1289,10 +1289,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0002432630291390613</v>
+        <v>0.0002550793207988033</v>
       </c>
       <c r="C12" t="n">
-        <v>0.09783061092049407</v>
+        <v>0.104925427765084</v>
       </c>
     </row>
     <row r="13">
@@ -1302,10 +1302,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-25.38683380765924</v>
+        <v>-36.26653106192565</v>
       </c>
       <c r="C13" t="n">
-        <v>0.04972652375241655</v>
+        <v>0.007936777878679458</v>
       </c>
     </row>
     <row r="14">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>8.70302259548178</v>
+        <v>18.59512788512975</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2074640035450882</v>
+        <v>0.009611455081470417</v>
       </c>
     </row>
     <row r="15">
@@ -1328,10 +1328,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-6186.098604287297</v>
+        <v>-4923.31540896279</v>
       </c>
       <c r="C15" t="n">
-        <v>0.003181450877069897</v>
+        <v>0.02582324120250067</v>
       </c>
     </row>
     <row r="16">
@@ -1341,10 +1341,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1312.809812310666</v>
+        <v>-432.7901130614562</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3212325549928584</v>
+        <v>0.7709416082949667</v>
       </c>
     </row>
   </sheetData>
@@ -1390,10 +1390,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7601.883933648948</v>
+        <v>5534.132977822173</v>
       </c>
       <c r="C2" t="n">
-        <v>2.034073081783788e-05</v>
+        <v>0.003369901803154335</v>
       </c>
     </row>
     <row r="3">
@@ -1403,10 +1403,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1395.555780302995</v>
+        <v>-245.6125460238766</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2603298678398591</v>
+        <v>0.8491006187268322</v>
       </c>
     </row>
     <row r="4">
@@ -1416,10 +1416,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-532.1204872717969</v>
+        <v>208.1154415656184</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6689204030574996</v>
+        <v>0.8721323066551906</v>
       </c>
     </row>
     <row r="5">
@@ -1429,10 +1429,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-417.9865379436376</v>
+        <v>-392.5134141398617</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1551286048440678</v>
+        <v>0.2041283000717941</v>
       </c>
     </row>
     <row r="6">
@@ -1442,10 +1442,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>75.90981449986248</v>
+        <v>52.39280936931436</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5369365488802637</v>
+        <v>0.6904798112268449</v>
       </c>
     </row>
     <row r="7">
@@ -1455,10 +1455,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-410.3389315742546</v>
+        <v>-844.4461446262876</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1607747398032973</v>
+        <v>0.006403885722221773</v>
       </c>
     </row>
     <row r="8">
@@ -1468,10 +1468,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-46.35644497246572</v>
+        <v>-29.50867887082929</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0004285306955485761</v>
+        <v>0.03166324905166185</v>
       </c>
     </row>
     <row r="9">
@@ -1481,10 +1481,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-82.65370853099596</v>
+        <v>40.00483162385224</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5021366704020022</v>
+        <v>0.7645635456546569</v>
       </c>
     </row>
     <row r="10">
@@ -1494,10 +1494,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>684.4862015851839</v>
+        <v>621.1811516401772</v>
       </c>
       <c r="C10" t="n">
-        <v>9.176898460373488e-21</v>
+        <v>8.103696624855289e-15</v>
       </c>
     </row>
     <row r="11">
@@ -1507,10 +1507,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.06658473461458797</v>
+        <v>-0.1475487573676708</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6140338784516276</v>
+        <v>0.2738637231657571</v>
       </c>
     </row>
     <row r="12">
@@ -1520,10 +1520,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0001584256084035575</v>
+        <v>0.0002153496762302342</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2882137991103383</v>
+        <v>0.1533036072299946</v>
       </c>
     </row>
     <row r="13">
@@ -1533,10 +1533,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-23.97476903620487</v>
+        <v>-17.53039936192746</v>
       </c>
       <c r="C13" t="n">
-        <v>0.06189763145746095</v>
+        <v>0.1860715378786797</v>
       </c>
     </row>
     <row r="14">
@@ -1546,10 +1546,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>18.02677533389377</v>
+        <v>23.5514029026592</v>
       </c>
       <c r="C14" t="n">
-        <v>0.005936339461781096</v>
+        <v>0.0009751204861974368</v>
       </c>
     </row>
     <row r="15">
@@ -1559,10 +1559,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-5154.02398506536</v>
+        <v>-4296.621421871323</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01294290238210435</v>
+        <v>0.04159473644432039</v>
       </c>
     </row>
     <row r="16">
@@ -1572,10 +1572,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1306.781366185695</v>
+        <v>-1519.835202512183</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3345863983067404</v>
+        <v>0.2939932207514259</v>
       </c>
     </row>
   </sheetData>
@@ -1621,10 +1621,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6182.975756168061</v>
+        <v>5363.015930200936</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001919797414197529</v>
+        <v>0.003664652264987789</v>
       </c>
     </row>
     <row r="3">
@@ -1634,10 +1634,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>990.6724229637845</v>
+        <v>145.0532611251779</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5069373113203806</v>
+        <v>0.9066130217347306</v>
       </c>
     </row>
     <row r="4">
@@ -1647,10 +1647,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1601.86579339084</v>
+        <v>551.3438528678198</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2840473082519732</v>
+        <v>0.6559377514060707</v>
       </c>
     </row>
     <row r="5">
@@ -1660,10 +1660,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-541.5190356884061</v>
+        <v>-580.6238968080099</v>
       </c>
       <c r="C5" t="n">
-        <v>0.06564906984344067</v>
+        <v>0.06399952562071642</v>
       </c>
     </row>
     <row r="6">
@@ -1673,10 +1673,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20.48010587375288</v>
+        <v>15.87856469604299</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8669079546506884</v>
+        <v>0.905311046761225</v>
       </c>
     </row>
     <row r="7">
@@ -1686,10 +1686,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-694.2570546282964</v>
+        <v>-723.8573393946347</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01730009359411828</v>
+        <v>0.02094084630842571</v>
       </c>
     </row>
     <row r="8">
@@ -1699,10 +1699,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-51.46826332040808</v>
+        <v>-42.17706722547585</v>
       </c>
       <c r="C8" t="n">
-        <v>8.823932730070204e-05</v>
+        <v>0.002391094225335077</v>
       </c>
     </row>
     <row r="9">
@@ -1712,10 +1712,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-44.39062548066719</v>
+        <v>-36.25574657779963</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7152894909472354</v>
+        <v>0.7831589102090769</v>
       </c>
     </row>
     <row r="10">
@@ -1725,10 +1725,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>656.2174574939249</v>
+        <v>669.9443778512621</v>
       </c>
       <c r="C10" t="n">
-        <v>2.871476900319759e-18</v>
+        <v>9.464122537091677e-18</v>
       </c>
     </row>
     <row r="11">
@@ -1738,10 +1738,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.03349065501554956</v>
+        <v>-0.1538427939586769</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8001119211766007</v>
+        <v>0.2653451552607552</v>
       </c>
     </row>
     <row r="12">
@@ -1751,10 +1751,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0001428906724455552</v>
+        <v>0.0002593079032469377</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3333243410271655</v>
+        <v>0.1002286112320443</v>
       </c>
     </row>
     <row r="13">
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-29.55001541149808</v>
+        <v>-24.46372304379319</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01958900755150255</v>
+        <v>0.07136101878408413</v>
       </c>
     </row>
     <row r="14">
@@ -1777,10 +1777,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>15.94078574708222</v>
+        <v>24.64906453005228</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01434242837734704</v>
+        <v>0.0009742248864419594</v>
       </c>
     </row>
     <row r="15">
@@ -1790,10 +1790,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-5616.567906728471</v>
+        <v>-4062.623455764348</v>
       </c>
       <c r="C15" t="n">
-        <v>0.006118737165772738</v>
+        <v>0.05931463410794823</v>
       </c>
     </row>
     <row r="16">
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-461.3630064991947</v>
+        <v>101.6765361380644</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7316580831978318</v>
+        <v>0.9453171936812742</v>
       </c>
     </row>
   </sheetData>
@@ -1852,10 +1852,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7678.88435327543</v>
+        <v>3993.686319418882</v>
       </c>
       <c r="C2" t="n">
-        <v>1.660642426896202e-05</v>
+        <v>0.04162389018092368</v>
       </c>
     </row>
     <row r="3">
@@ -1865,10 +1865,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-39.26018178176264</v>
+        <v>288.0991321348451</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9727589803451728</v>
+        <v>0.842827053608762</v>
       </c>
     </row>
     <row r="4">
@@ -1878,10 +1878,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>329.8133515955739</v>
+        <v>839.0269733511498</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7753446434175499</v>
+        <v>0.5640197539741076</v>
       </c>
     </row>
     <row r="5">
@@ -1891,10 +1891,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-229.8377126387496</v>
+        <v>-379.7827715902857</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4385856848642874</v>
+        <v>0.2067937537312713</v>
       </c>
     </row>
     <row r="6">
@@ -1904,10 +1904,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>17.88699719538189</v>
+        <v>28.4931897263875</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8890357242873141</v>
+        <v>0.823655570704018</v>
       </c>
     </row>
     <row r="7">
@@ -1917,10 +1917,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-407.1072656835294</v>
+        <v>-575.7754243527139</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1689207925094081</v>
+        <v>0.05353175211337019</v>
       </c>
     </row>
     <row r="8">
@@ -1930,10 +1930,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-43.25011373147554</v>
+        <v>-34.51449894969321</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001318407824789867</v>
+        <v>0.009380356376392597</v>
       </c>
     </row>
     <row r="9">
@@ -1943,10 +1943,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>36.78130486928811</v>
+        <v>42.62171774274313</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7654431739241735</v>
+        <v>0.7348291520823742</v>
       </c>
     </row>
     <row r="10">
@@ -1956,10 +1956,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>581.145735226951</v>
+        <v>729.3769945039398</v>
       </c>
       <c r="C10" t="n">
-        <v>3.764218005463603e-15</v>
+        <v>1.555320375043581e-22</v>
       </c>
     </row>
     <row r="11">
@@ -1969,10 +1969,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.06163411073901652</v>
+        <v>-0.159656219712475</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6381600013215039</v>
+        <v>0.2268198759085542</v>
       </c>
     </row>
     <row r="12">
@@ -1982,10 +1982,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0001309071610471084</v>
+        <v>0.0003191710248260781</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3782193779223093</v>
+        <v>0.03159486137177762</v>
       </c>
     </row>
     <row r="13">
@@ -1995,10 +1995,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-26.8493005736375</v>
+        <v>-26.29477422645945</v>
       </c>
       <c r="C13" t="n">
-        <v>0.03991356433460075</v>
+        <v>0.04235508058440954</v>
       </c>
     </row>
     <row r="14">
@@ -2008,10 +2008,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>10.21392672388043</v>
+        <v>20.71985198158765</v>
       </c>
       <c r="C14" t="n">
-        <v>0.130369548838353</v>
+        <v>0.002850410539187883</v>
       </c>
     </row>
     <row r="15">
@@ -2021,10 +2021,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-5412.545032579486</v>
+        <v>-4070.5510561178</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01185888569294749</v>
+        <v>0.04908073970807991</v>
       </c>
     </row>
     <row r="16">
@@ -2034,10 +2034,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1144.135853527685</v>
+        <v>987.1128078258871</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3984131048185612</v>
+        <v>0.4750524315957441</v>
       </c>
     </row>
   </sheetData>
@@ -2083,10 +2083,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4994.193275059452</v>
+        <v>5972.691082602172</v>
       </c>
       <c r="C2" t="n">
-        <v>0.004883688921709264</v>
+        <v>0.001309052050040153</v>
       </c>
     </row>
     <row r="3">
@@ -2096,10 +2096,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1049.871000727781</v>
+        <v>-1096.363717953502</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3743992906195381</v>
+        <v>0.4145394626388456</v>
       </c>
     </row>
     <row r="4">
@@ -2109,10 +2109,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1662.564441733777</v>
+        <v>-496.8467449522088</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1613979462118431</v>
+        <v>0.7119119109397143</v>
       </c>
     </row>
     <row r="5">
@@ -2122,10 +2122,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-192.5154816557696</v>
+        <v>-323.1312206450912</v>
       </c>
       <c r="C5" t="n">
-        <v>0.504907977248253</v>
+        <v>0.2995884510568976</v>
       </c>
     </row>
     <row r="6">
@@ -2135,10 +2135,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-43.36586639872426</v>
+        <v>133.0257416433727</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7236568729919812</v>
+        <v>0.3236977139379047</v>
       </c>
     </row>
     <row r="7">
@@ -2148,10 +2148,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-513.1090618651959</v>
+        <v>-619.0869358099969</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07576583722238855</v>
+        <v>0.04669299692838381</v>
       </c>
     </row>
     <row r="8">
@@ -2161,10 +2161,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-48.32410743605192</v>
+        <v>-40.67702076035869</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0002525316921247459</v>
+        <v>0.002933017945118574</v>
       </c>
     </row>
     <row r="9">
@@ -2174,10 +2174,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>51.96694793789638</v>
+        <v>-54.7372089594997</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6634691229017431</v>
+        <v>0.6791275242923401</v>
       </c>
     </row>
     <row r="10">
@@ -2187,10 +2187,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>706.7816169675023</v>
+        <v>692.2950800705257</v>
       </c>
       <c r="C10" t="n">
-        <v>1.232960710232935e-22</v>
+        <v>1.735485041292971e-18</v>
       </c>
     </row>
     <row r="11">
@@ -2200,10 +2200,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1148918948365502</v>
+        <v>-0.004735002147637418</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3759510430868861</v>
+        <v>0.9720265814590903</v>
       </c>
     </row>
     <row r="12">
@@ -2213,10 +2213,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.000289961051641649</v>
+        <v>9.843000880034247e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04575323804363701</v>
+        <v>0.5178219007598004</v>
       </c>
     </row>
     <row r="13">
@@ -2226,10 +2226,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-24.04095572216698</v>
+        <v>-27.22121309943797</v>
       </c>
       <c r="C13" t="n">
-        <v>0.05794413756884797</v>
+        <v>0.04655434430388684</v>
       </c>
     </row>
     <row r="14">
@@ -2239,10 +2239,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>14.25642782071451</v>
+        <v>23.92551226860878</v>
       </c>
       <c r="C14" t="n">
-        <v>0.02710136253105984</v>
+        <v>0.0007766591250225527</v>
       </c>
     </row>
     <row r="15">
@@ -2252,10 +2252,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-6278.962932771301</v>
+        <v>-3601.32619276289</v>
       </c>
       <c r="C15" t="n">
-        <v>0.001846940868596341</v>
+        <v>0.08865745291511863</v>
       </c>
     </row>
     <row r="16">
@@ -2265,10 +2265,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-215.1311790247216</v>
+        <v>109.3511446589495</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8728011016413941</v>
+        <v>0.9404738536128117</v>
       </c>
     </row>
   </sheetData>
@@ -2314,10 +2314,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5761.463751122124</v>
+        <v>6412.079922889241</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0006697308567854631</v>
+        <v>0.000454647541320086</v>
       </c>
     </row>
     <row r="3">
@@ -2327,10 +2327,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-228.0984724700802</v>
+        <v>411.0185630870066</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8363264476770841</v>
+        <v>0.7344440515230821</v>
       </c>
     </row>
     <row r="4">
@@ -2340,10 +2340,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>459.8077109695751</v>
+        <v>930.9705329074699</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6784659039072395</v>
+        <v>0.4421312875120246</v>
       </c>
     </row>
     <row r="5">
@@ -2353,10 +2353,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>157.5247714939001</v>
+        <v>-565.3369633490261</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5781404850632708</v>
+        <v>0.06722524322981409</v>
       </c>
     </row>
     <row r="6">
@@ -2366,10 +2366,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>74.47349836476144</v>
+        <v>-28.08005074736948</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5361395658842016</v>
+        <v>0.83029557865244</v>
       </c>
     </row>
     <row r="7">
@@ -2379,10 +2379,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-917.3049915703209</v>
+        <v>-749.2692151223195</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001297274479267625</v>
+        <v>0.01554576213602659</v>
       </c>
     </row>
     <row r="8">
@@ -2392,10 +2392,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-28.61496368240757</v>
+        <v>-52.61685088320584</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02585014039525197</v>
+        <v>0.0001164573670728335</v>
       </c>
     </row>
     <row r="9">
@@ -2405,10 +2405,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3.485599488539407</v>
+        <v>-56.36071690060827</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9763643606461812</v>
+        <v>0.6692763222259792</v>
       </c>
     </row>
     <row r="10">
@@ -2418,10 +2418,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>663.8033624888019</v>
+        <v>727.4512630642778</v>
       </c>
       <c r="C10" t="n">
-        <v>2.541161275892645e-20</v>
+        <v>5.081707796525497e-20</v>
       </c>
     </row>
     <row r="11">
@@ -2431,10 +2431,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.05325087493394566</v>
+        <v>-0.1019161604793129</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6749153642407636</v>
+        <v>0.4374501472777653</v>
       </c>
     </row>
     <row r="12">
@@ -2444,10 +2444,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0002396905748881856</v>
+        <v>0.0002240208744314045</v>
       </c>
       <c r="C12" t="n">
-        <v>0.09530451632400377</v>
+        <v>0.1278772935554048</v>
       </c>
     </row>
     <row r="13">
@@ -2457,10 +2457,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-34.4155763945943</v>
+        <v>-31.33471251909419</v>
       </c>
       <c r="C13" t="n">
-        <v>0.005871464536617652</v>
+        <v>0.01860437572294759</v>
       </c>
     </row>
     <row r="14">
@@ -2470,10 +2470,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>11.79383154126538</v>
+        <v>18.12581123978707</v>
       </c>
       <c r="C14" t="n">
-        <v>0.06317057932642964</v>
+        <v>0.0181046193873012</v>
       </c>
     </row>
     <row r="15">
@@ -2483,10 +2483,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-5269.125730520283</v>
+        <v>-4407.188618124967</v>
       </c>
       <c r="C15" t="n">
-        <v>0.007032273464035378</v>
+        <v>0.03342559902836761</v>
       </c>
     </row>
     <row r="16">
@@ -2496,10 +2496,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>452.5682265967487</v>
+        <v>309.0459365031994</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7252107497421986</v>
+        <v>0.834163178163668</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_commute/Clermont.xlsx
+++ b/outputs/ML_Results/dist_commute/Clermont.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ36364552" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ36568885" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ36791635" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ37043484" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ37281066" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ37501354" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ37737959" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ37974363" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ38195361" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ22949828" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ23185337" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ23432741" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ23666181" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ23903626" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ24149658" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ24382934" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ24619721" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ24850926" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/outputs/ML_Results/dist_commute/Clermont.xlsx
+++ b/outputs/ML_Results/dist_commute/Clermont.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ22949828" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ23185337" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ23432741" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ23666181" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ23903626" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ24149658" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ24382934" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ24619721" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ24850926" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ27578491" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ27789082" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ28055802" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ28325781" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ28588249" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ28852960" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ29109108" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ29364017" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ29639373" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6590.556893378081</v>
+        <v>7246.894834399931</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0005356684521131955</v>
+        <v>6.668222704437674e-05</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>364.0726676624257</v>
+        <v>-1511.056910150845</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7814602032367901</v>
+        <v>0.2368628427982399</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>812.1887578526456</v>
+        <v>-887.9949243176047</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5366632974477106</v>
+        <v>0.4886611442110637</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-389.4938575634466</v>
+        <v>-433.1137178985263</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2103133591382408</v>
+        <v>0.1392699277534862</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>72.13884415386732</v>
+        <v>67.99289478421247</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5828219205919364</v>
+        <v>0.5868797052532284</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-607.9216975724634</v>
+        <v>-776.9412922652144</v>
       </c>
       <c r="C7" t="n">
-        <v>0.05080317800354926</v>
+        <v>0.008076650234334256</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-46.86508824289737</v>
+        <v>-38.72583806043021</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0007766282736036327</v>
+        <v>0.003399738128581711</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>76.55328739420764</v>
+        <v>65.6594456547941</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5674124668464999</v>
+        <v>0.5955090559157934</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>588.5006169139917</v>
+        <v>610.6971999422312</v>
       </c>
       <c r="C10" t="n">
-        <v>1.16072517790715e-13</v>
+        <v>1.736559383233683e-15</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.0717519736061949</v>
+        <v>-0.1589794990991311</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6153699801996916</v>
+        <v>0.2203628878800351</v>
       </c>
     </row>
     <row r="12">
@@ -596,62 +596,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0001960142218852321</v>
+        <v>0.0001414622857089593</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2187769583013826</v>
+        <v>0.3306007996743626</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-40.53975495749921</v>
+        <v>18.4404569750178</v>
       </c>
       <c r="C13" t="n">
-        <v>0.002970254542357752</v>
+        <v>0.001767917100464464</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>14.06191618406176</v>
+        <v>-5755.993188725779</v>
       </c>
       <c r="C14" t="n">
-        <v>0.06243638591532846</v>
+        <v>0.004398736140770852</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-3229.626977234399</v>
+        <v>-2558.554697915431</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1760270138400477</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>430.7094687134681</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.7679889861415548</v>
+        <v>0.03186318411949117</v>
       </c>
     </row>
   </sheetData>
@@ -665,7 +652,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -697,10 +684,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5713.091290173001</v>
+        <v>5347.853526777185</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001630548731345934</v>
+        <v>0.002575306780658934</v>
       </c>
     </row>
     <row r="3">
@@ -710,10 +697,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-9.145062678815975</v>
+        <v>-289.21607960489</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9939701191891821</v>
+        <v>0.8117233609095895</v>
       </c>
     </row>
     <row r="4">
@@ -723,10 +710,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>495.1484538279606</v>
+        <v>468.148739808108</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6823663956619215</v>
+        <v>0.7012174025903058</v>
       </c>
     </row>
     <row r="5">
@@ -736,10 +723,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-174.3213379440327</v>
+        <v>-178.228386775684</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5731325783792114</v>
+        <v>0.5506645844286107</v>
       </c>
     </row>
     <row r="6">
@@ -749,10 +736,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>25.37240563477761</v>
+        <v>36.75058121570274</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8427175882699013</v>
+        <v>0.7728724880354736</v>
       </c>
     </row>
     <row r="7">
@@ -762,10 +749,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-846.194908167913</v>
+        <v>-444.0625559443728</v>
       </c>
       <c r="C7" t="n">
-        <v>0.00608544814986693</v>
+        <v>0.1366779886661871</v>
       </c>
     </row>
     <row r="8">
@@ -775,10 +762,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-42.80441931345823</v>
+        <v>-45.18061253613169</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001467574788862512</v>
+        <v>0.0008959452405628962</v>
       </c>
     </row>
     <row r="9">
@@ -788,10 +775,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-73.15925983392658</v>
+        <v>10.09344597664979</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5782510744899477</v>
+        <v>0.9347273514862932</v>
       </c>
     </row>
     <row r="10">
@@ -801,10 +788,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>672.6626968036387</v>
+        <v>659.623071399121</v>
       </c>
       <c r="C10" t="n">
-        <v>1.112958617522386e-18</v>
+        <v>9.366726620617052e-19</v>
       </c>
     </row>
     <row r="11">
@@ -814,10 +801,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1286363290522387</v>
+        <v>-0.14906580618655</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3326971115354008</v>
+        <v>0.2726013434047908</v>
       </c>
     </row>
     <row r="12">
@@ -827,62 +814,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0002662147208456877</v>
+        <v>9.757404960065717e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>0.07559582215104872</v>
+        <v>0.5261085245462809</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-30.32396054832291</v>
+        <v>23.58714551416669</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0254471318587915</v>
+        <v>0.00017291476986433</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>21.84187457500108</v>
+        <v>-4976.778418263709</v>
       </c>
       <c r="C14" t="n">
-        <v>0.00439309157362507</v>
+        <v>0.02033376970769971</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-4738.696324804907</v>
+        <v>-2111.495404910145</v>
       </c>
       <c r="C15" t="n">
-        <v>0.03441554535474797</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>471.7581036246165</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.7425184146427419</v>
+        <v>0.08146086969357827</v>
       </c>
     </row>
   </sheetData>
@@ -896,7 +870,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -928,10 +902,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4126.828348526788</v>
+        <v>4570.726447510337</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02727916726156284</v>
+        <v>0.00657676676495771</v>
       </c>
     </row>
     <row r="3">
@@ -941,10 +915,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>299.2707786742919</v>
+        <v>-133.5472730630868</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8060867418118944</v>
+        <v>0.9057753772789547</v>
       </c>
     </row>
     <row r="4">
@@ -954,10 +928,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>704.6885932453486</v>
+        <v>459.898871062388</v>
       </c>
       <c r="C4" t="n">
-        <v>0.563520343629407</v>
+        <v>0.6849045342205746</v>
       </c>
     </row>
     <row r="5">
@@ -967,10 +941,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-474.8727094945946</v>
+        <v>-585.1000945753875</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1254316483343314</v>
+        <v>0.04570094370911403</v>
       </c>
     </row>
     <row r="6">
@@ -980,10 +954,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4553717603271537</v>
+        <v>-172.9241291034691</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9972368783157246</v>
+        <v>0.1725513584601903</v>
       </c>
     </row>
     <row r="7">
@@ -993,10 +967,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-674.4498939722937</v>
+        <v>-332.989494904044</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03063237445950029</v>
+        <v>0.2532616934908626</v>
       </c>
     </row>
     <row r="8">
@@ -1006,10 +980,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-32.0460540280986</v>
+        <v>-39.74550243311096</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02204120006266711</v>
+        <v>0.002410367779414926</v>
       </c>
     </row>
     <row r="9">
@@ -1019,10 +993,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>35.73084719448493</v>
+        <v>-91.30101089480061</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7850013580724094</v>
+        <v>0.4482628230323336</v>
       </c>
     </row>
     <row r="10">
@@ -1032,10 +1006,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>634.7780352777449</v>
+        <v>739.4975994525405</v>
       </c>
       <c r="C10" t="n">
-        <v>2.124544611390109e-16</v>
+        <v>2.069787090572408e-23</v>
       </c>
     </row>
     <row r="11">
@@ -1045,10 +1019,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1252706222682481</v>
+        <v>-0.04527971707977282</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3497779368023975</v>
+        <v>0.7240729768980605</v>
       </c>
     </row>
     <row r="12">
@@ -1058,62 +1032,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0003018139888041557</v>
+        <v>9.588181929198386e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04507107476585468</v>
+        <v>0.5030869094959336</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-35.05371707408419</v>
+        <v>30.58925221459952</v>
       </c>
       <c r="C13" t="n">
-        <v>0.00891525294267366</v>
+        <v>2.881305033068816e-07</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>33.5143145549079</v>
+        <v>-5451.831087059209</v>
       </c>
       <c r="C14" t="n">
-        <v>2.074271182652433e-05</v>
+        <v>0.00611172533334087</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-5390.692363414546</v>
+        <v>-1966.563444089793</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01346187400955703</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>1088.716836976989</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.4497046004781727</v>
+        <v>0.09576829702806135</v>
       </c>
     </row>
   </sheetData>
@@ -1127,7 +1088,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1159,10 +1120,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5712.707307362978</v>
+        <v>5777.880232228314</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003183808811120226</v>
+        <v>0.0005621194674598266</v>
       </c>
     </row>
     <row r="3">
@@ -1172,10 +1133,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1107.365378814072</v>
+        <v>-331.9019303789574</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4326442845130654</v>
+        <v>0.7690101439157259</v>
       </c>
     </row>
     <row r="4">
@@ -1185,10 +1146,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1695.568306876038</v>
+        <v>170.4500755531752</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2290196620127795</v>
+        <v>0.8806029386230403</v>
       </c>
     </row>
     <row r="5">
@@ -1198,10 +1159,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-92.93516386891694</v>
+        <v>-360.8786659658905</v>
       </c>
       <c r="C5" t="n">
-        <v>0.768423153948687</v>
+        <v>0.2162734564810117</v>
       </c>
     </row>
     <row r="6">
@@ -1211,10 +1172,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>53.908860014046</v>
+        <v>-21.04494373091909</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6856954764636234</v>
+        <v>0.8632575003931313</v>
       </c>
     </row>
     <row r="7">
@@ -1224,10 +1185,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-930.2173226294364</v>
+        <v>-362.4399170932361</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002859242957304503</v>
+        <v>0.2131962517584552</v>
       </c>
     </row>
     <row r="8">
@@ -1237,10 +1198,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-51.11578103400532</v>
+        <v>-31.88695278430173</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0002667987647143456</v>
+        <v>0.01469081539137169</v>
       </c>
     </row>
     <row r="9">
@@ -1250,10 +1211,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>11.47606745399365</v>
+        <v>33.06578880675528</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9313563803234528</v>
+        <v>0.7873226091689578</v>
       </c>
     </row>
     <row r="10">
@@ -1263,10 +1224,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>661.8849088782239</v>
+        <v>691.4177832118119</v>
       </c>
       <c r="C10" t="n">
-        <v>3.774521664551327e-17</v>
+        <v>4.22656960092371e-21</v>
       </c>
     </row>
     <row r="11">
@@ -1276,10 +1237,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.07558646001135354</v>
+        <v>-0.1592376251370658</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5889085294684437</v>
+        <v>0.2160157493607978</v>
       </c>
     </row>
     <row r="12">
@@ -1289,62 +1250,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0002550793207988033</v>
+        <v>0.0001995173830019937</v>
       </c>
       <c r="C12" t="n">
-        <v>0.104925427765084</v>
+        <v>0.1716888952344015</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-36.26653106192565</v>
+        <v>14.94559100506491</v>
       </c>
       <c r="C13" t="n">
-        <v>0.007936777878679458</v>
+        <v>0.01470971635457912</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>18.59512788512975</v>
+        <v>-6809.801249694048</v>
       </c>
       <c r="C14" t="n">
-        <v>0.009611455081470417</v>
+        <v>0.001155098088651693</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-4923.31540896279</v>
+        <v>-2466.201828664252</v>
       </c>
       <c r="C15" t="n">
-        <v>0.02582324120250067</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>-432.7901130614562</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.7709416082949667</v>
+        <v>0.03539899322496337</v>
       </c>
     </row>
   </sheetData>
@@ -1358,7 +1306,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1390,10 +1338,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5534.132977822173</v>
+        <v>6759.606483079187</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003369901803154335</v>
+        <v>8.953823533017366e-05</v>
       </c>
     </row>
     <row r="3">
@@ -1403,10 +1351,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-245.6125460238766</v>
+        <v>-1576.533125521908</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8491006187268322</v>
+        <v>0.2026688850466428</v>
       </c>
     </row>
     <row r="4">
@@ -1416,10 +1364,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>208.1154415656184</v>
+        <v>-719.447526970122</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8721323066551906</v>
+        <v>0.5623004783214336</v>
       </c>
     </row>
     <row r="5">
@@ -1429,10 +1377,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-392.5134141398617</v>
+        <v>-462.8980275640846</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2041283000717941</v>
+        <v>0.114639985239854</v>
       </c>
     </row>
     <row r="6">
@@ -1442,10 +1390,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>52.39280936931436</v>
+        <v>52.60213126442421</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6904798112268449</v>
+        <v>0.667519371280094</v>
       </c>
     </row>
     <row r="7">
@@ -1455,10 +1403,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-844.4461446262876</v>
+        <v>-404.2848408716868</v>
       </c>
       <c r="C7" t="n">
-        <v>0.006403885722221773</v>
+        <v>0.167490821772482</v>
       </c>
     </row>
     <row r="8">
@@ -1468,10 +1416,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-29.50867887082929</v>
+        <v>-48.25649637041712</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03166324905166185</v>
+        <v>0.0002408219886606014</v>
       </c>
     </row>
     <row r="9">
@@ -1481,10 +1429,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>40.00483162385224</v>
+        <v>-66.23225428913048</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7645635456546569</v>
+        <v>0.5902712352224828</v>
       </c>
     </row>
     <row r="10">
@@ -1494,10 +1442,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>621.1811516401772</v>
+        <v>691.8318356417321</v>
       </c>
       <c r="C10" t="n">
-        <v>8.103696624855289e-15</v>
+        <v>3.61869153537552e-21</v>
       </c>
     </row>
     <row r="11">
@@ -1507,10 +1455,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1475487573676708</v>
+        <v>-0.1150476492042373</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2738637231657571</v>
+        <v>0.3779891651288306</v>
       </c>
     </row>
     <row r="12">
@@ -1520,62 +1468,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0002153496762302342</v>
+        <v>9.960888539576662e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1533036072299946</v>
+        <v>0.5001874865994511</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-17.53039936192746</v>
+        <v>23.86812965101461</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1860715378786797</v>
+        <v>3.58372225339273e-05</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>23.5514029026592</v>
+        <v>-5556.305306707854</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0009751204861974368</v>
+        <v>0.007453858159417466</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-4296.621421871323</v>
+        <v>-2416.09576276948</v>
       </c>
       <c r="C15" t="n">
-        <v>0.04159473644432039</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>-1519.835202512183</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2939932207514259</v>
+        <v>0.04677921739250908</v>
       </c>
     </row>
   </sheetData>
@@ -1589,7 +1524,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1621,10 +1556,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5363.015930200936</v>
+        <v>5078.428157483289</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003664652264987789</v>
+        <v>0.008788065326140192</v>
       </c>
     </row>
     <row r="3">
@@ -1634,10 +1569,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>145.0532611251779</v>
+        <v>830.9094143629513</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9066130217347306</v>
+        <v>0.5781531625619157</v>
       </c>
     </row>
     <row r="4">
@@ -1647,10 +1582,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>551.3438528678198</v>
+        <v>1443.193429794025</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6559377514060707</v>
+        <v>0.3349106258088419</v>
       </c>
     </row>
     <row r="5">
@@ -1660,10 +1595,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-580.6238968080099</v>
+        <v>-563.4860740219445</v>
       </c>
       <c r="C5" t="n">
-        <v>0.06399952562071642</v>
+        <v>0.05581105582682931</v>
       </c>
     </row>
     <row r="6">
@@ -1673,10 +1608,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>15.87856469604299</v>
+        <v>-2.414938342266225</v>
       </c>
       <c r="C6" t="n">
-        <v>0.905311046761225</v>
+        <v>0.9842161432362013</v>
       </c>
     </row>
     <row r="7">
@@ -1686,10 +1621,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-723.8573393946347</v>
+        <v>-688.1408207280308</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02094084630842571</v>
+        <v>0.01852997406510874</v>
       </c>
     </row>
     <row r="8">
@@ -1699,10 +1634,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-42.17706722547585</v>
+        <v>-53.62397103904085</v>
       </c>
       <c r="C8" t="n">
-        <v>0.002391094225335077</v>
+        <v>4.390272714037106e-05</v>
       </c>
     </row>
     <row r="9">
@@ -1712,10 +1647,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-36.25574657779963</v>
+        <v>-27.38054638544143</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7831589102090769</v>
+        <v>0.8220581198107775</v>
       </c>
     </row>
     <row r="10">
@@ -1725,10 +1660,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>669.9443778512621</v>
+        <v>664.2043740377558</v>
       </c>
       <c r="C10" t="n">
-        <v>9.464122537091677e-18</v>
+        <v>1.250542792493233e-18</v>
       </c>
     </row>
     <row r="11">
@@ -1738,10 +1673,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1538427939586769</v>
+        <v>-0.10441735050713</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2653451552607552</v>
+        <v>0.4240486556944376</v>
       </c>
     </row>
     <row r="12">
@@ -1751,62 +1686,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0002593079032469377</v>
+        <v>8.092953770983942e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1002286112320443</v>
+        <v>0.5817422715330062</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-24.46372304379319</v>
+        <v>23.06046215062793</v>
       </c>
       <c r="C13" t="n">
-        <v>0.07136101878408413</v>
+        <v>6.481946134572963e-05</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>24.64906453005228</v>
+        <v>-6186.019853040545</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0009742248864419594</v>
+        <v>0.00259356581176264</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-4062.623455764348</v>
+        <v>-1818.52859888708</v>
       </c>
       <c r="C15" t="n">
-        <v>0.05931463410794823</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>101.6765361380644</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.9453171936812742</v>
+        <v>0.1308084987487612</v>
       </c>
     </row>
   </sheetData>
@@ -1820,7 +1742,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1852,10 +1774,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3993.686319418882</v>
+        <v>6739.265602263369</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04162389018092368</v>
+        <v>9.152518033534386e-05</v>
       </c>
     </row>
     <row r="3">
@@ -1865,10 +1787,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>288.0991321348451</v>
+        <v>-231.4165300149948</v>
       </c>
       <c r="C3" t="n">
-        <v>0.842827053608762</v>
+        <v>0.8401983770591083</v>
       </c>
     </row>
     <row r="4">
@@ -1878,10 +1800,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>839.0269733511498</v>
+        <v>124.5343936359698</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5640197539741076</v>
+        <v>0.9139930742419271</v>
       </c>
     </row>
     <row r="5">
@@ -1891,10 +1813,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-379.7827715902857</v>
+        <v>-250.2463287060955</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2067937537312713</v>
+        <v>0.3994152552757492</v>
       </c>
     </row>
     <row r="6">
@@ -1904,10 +1826,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>28.4931897263875</v>
+        <v>-4.072471263793034</v>
       </c>
       <c r="C6" t="n">
-        <v>0.823655570704018</v>
+        <v>0.9746057566015531</v>
       </c>
     </row>
     <row r="7">
@@ -1917,10 +1839,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-575.7754243527139</v>
+        <v>-389.9139243588982</v>
       </c>
       <c r="C7" t="n">
-        <v>0.05353175211337019</v>
+        <v>0.1880677092151543</v>
       </c>
     </row>
     <row r="8">
@@ -1930,10 +1852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-34.51449894969321</v>
+        <v>-45.55516945734027</v>
       </c>
       <c r="C8" t="n">
-        <v>0.009380356376392597</v>
+        <v>0.0007003769650646962</v>
       </c>
     </row>
     <row r="9">
@@ -1943,10 +1865,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>42.62171774274313</v>
+        <v>49.71670071574482</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7348291520823742</v>
+        <v>0.6868585737058298</v>
       </c>
     </row>
     <row r="10">
@@ -1956,10 +1878,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>729.3769945039398</v>
+        <v>586.8293827090729</v>
       </c>
       <c r="C10" t="n">
-        <v>1.555320375043581e-22</v>
+        <v>2.144310280516263e-15</v>
       </c>
     </row>
     <row r="11">
@@ -1969,10 +1891,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.159656219712475</v>
+        <v>-0.1281641205409248</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2268198759085542</v>
+        <v>0.3220380460527162</v>
       </c>
     </row>
     <row r="12">
@@ -1982,62 +1904,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0003191710248260781</v>
+        <v>7.694726499871585e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>0.03159486137177762</v>
+        <v>0.6013313134185543</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-26.29477422645945</v>
+        <v>16.91098336580277</v>
       </c>
       <c r="C13" t="n">
-        <v>0.04235508058440954</v>
+        <v>0.0042742255095024</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>20.71985198158765</v>
+        <v>-6017.664395527881</v>
       </c>
       <c r="C14" t="n">
-        <v>0.002850410539187883</v>
+        <v>0.005169382130807597</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-4070.5510561178</v>
+        <v>-2343.411843496253</v>
       </c>
       <c r="C15" t="n">
-        <v>0.04908073970807991</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>987.1128078258871</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.4750524315957441</v>
+        <v>0.05274576982798843</v>
       </c>
     </row>
   </sheetData>
@@ -2051,7 +1960,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2083,10 +1992,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5972.691082602172</v>
+        <v>4130.053876226246</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001309052050040153</v>
+        <v>0.01594020661993227</v>
       </c>
     </row>
     <row r="3">
@@ -2096,10 +2005,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1096.363717953502</v>
+        <v>875.4442394023671</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4145394626388456</v>
+        <v>0.4580722896739772</v>
       </c>
     </row>
     <row r="4">
@@ -2109,10 +2018,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-496.8467449522088</v>
+        <v>1479.46800893869</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7119119109397143</v>
+        <v>0.2117250147915611</v>
       </c>
     </row>
     <row r="5">
@@ -2122,10 +2031,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-323.1312206450912</v>
+        <v>-212.3768171316408</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2995884510568976</v>
+        <v>0.462242838402113</v>
       </c>
     </row>
     <row r="6">
@@ -2135,10 +2044,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>133.0257416433727</v>
+        <v>-59.13823196969238</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3236977139379047</v>
+        <v>0.6293313719741243</v>
       </c>
     </row>
     <row r="7">
@@ -2148,10 +2057,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-619.0869358099969</v>
+        <v>-498.4333204061813</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04669299692838381</v>
+        <v>0.08475876006266919</v>
       </c>
     </row>
     <row r="8">
@@ -2161,10 +2070,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-40.67702076035869</v>
+        <v>-49.04610787090721</v>
       </c>
       <c r="C8" t="n">
-        <v>0.002933017945118574</v>
+        <v>0.0002061099195876843</v>
       </c>
     </row>
     <row r="9">
@@ -2174,10 +2083,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-54.7372089594997</v>
+        <v>61.87710762124166</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6791275242923401</v>
+        <v>0.604589332987207</v>
       </c>
     </row>
     <row r="10">
@@ -2187,10 +2096,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>692.2950800705257</v>
+        <v>715.1870916617509</v>
       </c>
       <c r="C10" t="n">
-        <v>1.735485041292971e-18</v>
+        <v>3.836093402639869e-23</v>
       </c>
     </row>
     <row r="11">
@@ -2200,10 +2109,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.004735002147637418</v>
+        <v>-0.1663312001822424</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9720265814590903</v>
+        <v>0.1938313590456818</v>
       </c>
     </row>
     <row r="12">
@@ -2213,62 +2122,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9.843000880034247e-05</v>
+        <v>0.0002339428796325996</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5178219007598004</v>
+        <v>0.1034724933899865</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-27.22121309943797</v>
+        <v>19.94304693757027</v>
       </c>
       <c r="C13" t="n">
-        <v>0.04655434430388684</v>
+        <v>0.00049268828864712</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>23.92551226860878</v>
+        <v>-6751.77650701825</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0007766591250225527</v>
+        <v>0.0008023886696772479</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-3601.32619276289</v>
+        <v>-1398.848009922712</v>
       </c>
       <c r="C15" t="n">
-        <v>0.08865745291511863</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>109.3511446589495</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.9404738536128117</v>
+        <v>0.2404082704891742</v>
       </c>
     </row>
   </sheetData>
@@ -2282,7 +2178,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2314,10 +2210,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6412.079922889241</v>
+        <v>4502.614873481172</v>
       </c>
       <c r="C2" t="n">
-        <v>0.000454647541320086</v>
+        <v>0.005897968480136383</v>
       </c>
     </row>
     <row r="3">
@@ -2327,10 +2223,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>411.0185630870066</v>
+        <v>-467.6675877417566</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7344440515230821</v>
+        <v>0.6718435345794725</v>
       </c>
     </row>
     <row r="4">
@@ -2340,10 +2236,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>930.9705329074699</v>
+        <v>214.416198370282</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4421312875120246</v>
+        <v>0.8466700200072367</v>
       </c>
     </row>
     <row r="5">
@@ -2353,10 +2249,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-565.3369633490261</v>
+        <v>115.4516593853699</v>
       </c>
       <c r="C5" t="n">
-        <v>0.06722524322981409</v>
+        <v>0.6840474660575628</v>
       </c>
     </row>
     <row r="6">
@@ -2366,10 +2262,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-28.08005074736948</v>
+        <v>57.34581107968653</v>
       </c>
       <c r="C6" t="n">
-        <v>0.83029557865244</v>
+        <v>0.6343859468384156</v>
       </c>
     </row>
     <row r="7">
@@ -2379,10 +2275,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-749.2692151223195</v>
+        <v>-869.0723861763797</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01554576213602659</v>
+        <v>0.002329868133970071</v>
       </c>
     </row>
     <row r="8">
@@ -2392,10 +2288,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-52.61685088320584</v>
+        <v>-31.37954355357687</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0001164573670728335</v>
+        <v>0.0145501873331041</v>
       </c>
     </row>
     <row r="9">
@@ -2405,10 +2301,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-56.36071690060827</v>
+        <v>18.65488186101018</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6692763222259792</v>
+        <v>0.8741223747193668</v>
       </c>
     </row>
     <row r="10">
@@ -2418,10 +2314,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>727.4512630642778</v>
+        <v>670.1436113736358</v>
       </c>
       <c r="C10" t="n">
-        <v>5.081707796525497e-20</v>
+        <v>1.464626334721252e-20</v>
       </c>
     </row>
     <row r="11">
@@ -2431,10 +2327,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1019161604793129</v>
+        <v>-0.1163539426031062</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4374501472777653</v>
+        <v>0.3558834770096129</v>
       </c>
     </row>
     <row r="12">
@@ -2444,62 +2340,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0002240208744314045</v>
+        <v>0.0001419877783299893</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1278772935554048</v>
+        <v>0.3164773977927807</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-31.33471251909419</v>
+        <v>20.16276462069916</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01860437572294759</v>
+        <v>0.0003279673051605143</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>18.12581123978707</v>
+        <v>-5677.254442679677</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0181046193873012</v>
+        <v>0.003855339877710808</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-4407.188618124967</v>
+        <v>-1160.083440235122</v>
       </c>
       <c r="C15" t="n">
-        <v>0.03342559902836761</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>309.0459365031994</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.834163178163668</v>
+        <v>0.3128582731885057</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_commute/Clermont.xlsx
+++ b/outputs/ML_Results/dist_commute/Clermont.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ27578491" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ27789082" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ28055802" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ28325781" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ28588249" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ28852960" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ29109108" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ29364017" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ29639373" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ47509819" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ47715505" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ47932880" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ48146669" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ48359146" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ48570207" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ48781967" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ48991941" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ49198699" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7246.894834399931</v>
+        <v>7246.894835584931</v>
       </c>
       <c r="C2" t="n">
-        <v>6.668222704437674e-05</v>
+        <v>6.668222731395958e-05</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1511.056910150845</v>
+        <v>-1511.056909931209</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2368628427982399</v>
+        <v>0.2368628427982458</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-887.9949243176047</v>
+        <v>-887.9949244478206</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4886611442110637</v>
+        <v>0.4886611441836622</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-433.1137178985263</v>
+        <v>-433.1137180518072</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1392699277534862</v>
+        <v>0.1392699276031835</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>67.99289478421247</v>
+        <v>67.99289478660408</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5868797052532284</v>
+        <v>0.5868797052402128</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-776.9412922652144</v>
+        <v>-776.9412923730689</v>
       </c>
       <c r="C7" t="n">
-        <v>0.008076650234334256</v>
+        <v>0.008076650225500595</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-38.72583806043021</v>
+        <v>-38.72583805051277</v>
       </c>
       <c r="C8" t="n">
-        <v>0.003399738128581711</v>
+        <v>0.003399738135713728</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>65.6594456547941</v>
+        <v>65.65944557749629</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5955090559157934</v>
+        <v>0.5955090563423246</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>610.6971999422312</v>
+        <v>610.6971997300939</v>
       </c>
       <c r="C10" t="n">
-        <v>1.736559383233683e-15</v>
+        <v>1.736559432593393e-15</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1589794990991311</v>
+        <v>-15.89794992918786</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2203628878800351</v>
+        <v>0.2203628873481228</v>
       </c>
     </row>
     <row r="12">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0001414622857089593</v>
+        <v>141.4622857917997</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3306007996743626</v>
+        <v>0.3306007994832804</v>
       </c>
     </row>
     <row r="13">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>18.4404569750178</v>
+        <v>18.44045697501627</v>
       </c>
       <c r="C13" t="n">
-        <v>0.001767917100464464</v>
+        <v>0.001767917100466121</v>
       </c>
     </row>
     <row r="14">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-5755.993188725779</v>
+        <v>-57.55993188726083</v>
       </c>
       <c r="C14" t="n">
-        <v>0.004398736140770852</v>
+        <v>0.00439873614076869</v>
       </c>
     </row>
     <row r="15">
@@ -635,10 +635,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-2558.554697915431</v>
+        <v>-25.58554697915538</v>
       </c>
       <c r="C15" t="n">
-        <v>0.03186318411949117</v>
+        <v>0.03186318411948429</v>
       </c>
     </row>
   </sheetData>
@@ -684,10 +684,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5347.853526777185</v>
+        <v>5347.853527268115</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002575306780658934</v>
+        <v>0.002575306798322048</v>
       </c>
     </row>
     <row r="3">
@@ -697,10 +697,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-289.21607960489</v>
+        <v>-289.2160796818193</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8117233609095895</v>
+        <v>0.8117233609095679</v>
       </c>
     </row>
     <row r="4">
@@ -710,10 +710,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>468.148739808108</v>
+        <v>468.1487397577729</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7012174025903058</v>
+        <v>0.7012174026684801</v>
       </c>
     </row>
     <row r="5">
@@ -723,10 +723,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-178.228386775684</v>
+        <v>-178.2283867886044</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5506645844286107</v>
+        <v>0.5506645843963998</v>
       </c>
     </row>
     <row r="6">
@@ -736,10 +736,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>36.75058121570274</v>
+        <v>36.75058119617191</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7728724880354736</v>
+        <v>0.7728724881483077</v>
       </c>
     </row>
     <row r="7">
@@ -749,10 +749,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-444.0625559443728</v>
+        <v>-444.0625559327589</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1366779886661871</v>
+        <v>0.1366779886772616</v>
       </c>
     </row>
     <row r="8">
@@ -762,10 +762,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-45.18061253613169</v>
+        <v>-45.18061254030532</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0008959452405628962</v>
+        <v>0.0008959452395746511</v>
       </c>
     </row>
     <row r="9">
@@ -775,10 +775,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10.09344597664979</v>
+        <v>10.09344596771561</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9347273514862932</v>
+        <v>0.9347273515434451</v>
       </c>
     </row>
     <row r="10">
@@ -788,10 +788,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>659.623071399121</v>
+        <v>659.6230714071852</v>
       </c>
       <c r="C10" t="n">
-        <v>9.366726620617052e-19</v>
+        <v>9.366726602481685e-19</v>
       </c>
     </row>
     <row r="11">
@@ -801,10 +801,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.14906580618655</v>
+        <v>-14.90658062279576</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2726013434047908</v>
+        <v>0.2726013432944507</v>
       </c>
     </row>
     <row r="12">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9.757404960065717e-05</v>
+        <v>97.57405003358517</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5261085245462809</v>
+        <v>0.5261085227807185</v>
       </c>
     </row>
     <row r="13">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>23.58714551416669</v>
+        <v>23.58714551416578</v>
       </c>
       <c r="C13" t="n">
-        <v>0.00017291476986433</v>
+        <v>0.0001729147698644284</v>
       </c>
     </row>
     <row r="14">
@@ -840,10 +840,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-4976.778418263709</v>
+        <v>-49.76778418263774</v>
       </c>
       <c r="C14" t="n">
-        <v>0.02033376970769971</v>
+        <v>0.02033376970769806</v>
       </c>
     </row>
     <row r="15">
@@ -853,10 +853,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-2111.495404910145</v>
+        <v>-21.11495404910199</v>
       </c>
       <c r="C15" t="n">
-        <v>0.08146086969357827</v>
+        <v>0.08146086969357094</v>
       </c>
     </row>
   </sheetData>
@@ -902,10 +902,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4570.726447510337</v>
+        <v>4570.726447593489</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00657676676495771</v>
+        <v>0.006576766779140404</v>
       </c>
     </row>
     <row r="3">
@@ -915,10 +915,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-133.5472730630868</v>
+        <v>-133.5472730450792</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9057753772789547</v>
+        <v>0.9057753772789849</v>
       </c>
     </row>
     <row r="4">
@@ -928,10 +928,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>459.898871062388</v>
+        <v>459.8988711264396</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6849045342205746</v>
+        <v>0.6849045340415504</v>
       </c>
     </row>
     <row r="5">
@@ -941,10 +941,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-585.1000945753875</v>
+        <v>-585.1000945740996</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04570094370911403</v>
+        <v>0.04570094371011869</v>
       </c>
     </row>
     <row r="6">
@@ -954,10 +954,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-172.9241291034691</v>
+        <v>-172.9241291142177</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1725513584601903</v>
+        <v>0.1725513584266708</v>
       </c>
     </row>
     <row r="7">
@@ -967,10 +967,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-332.989494904044</v>
+        <v>-332.9894949008692</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2532616934908626</v>
+        <v>0.2532616934967342</v>
       </c>
     </row>
     <row r="8">
@@ -980,10 +980,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-39.74550243311096</v>
+        <v>-39.74550243513777</v>
       </c>
       <c r="C8" t="n">
-        <v>0.002410367779414926</v>
+        <v>0.002410367778936817</v>
       </c>
     </row>
     <row r="9">
@@ -993,10 +993,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-91.30101089480061</v>
+        <v>-91.30101089008659</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4482628230323336</v>
+        <v>0.4482628230636124</v>
       </c>
     </row>
     <row r="10">
@@ -1006,10 +1006,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>739.4975994525405</v>
+        <v>739.4975994496144</v>
       </c>
       <c r="C10" t="n">
-        <v>2.069787090572408e-23</v>
+        <v>2.069787096062668e-23</v>
       </c>
     </row>
     <row r="11">
@@ -1019,10 +1019,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.04527971707977282</v>
+        <v>-4.527971708844765</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7240729768980605</v>
+        <v>0.7240729768544797</v>
       </c>
     </row>
     <row r="12">
@@ -1032,10 +1032,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9.588181929198386e-05</v>
+        <v>95.88181953534146</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5030869094959336</v>
+        <v>0.5030869084244538</v>
       </c>
     </row>
     <row r="13">
@@ -1045,10 +1045,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>30.58925221459952</v>
+        <v>30.58925221459755</v>
       </c>
       <c r="C13" t="n">
-        <v>2.881305033068816e-07</v>
+        <v>2.881305033074673e-07</v>
       </c>
     </row>
     <row r="14">
@@ -1058,10 +1058,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-5451.831087059209</v>
+        <v>-54.51831087059441</v>
       </c>
       <c r="C14" t="n">
-        <v>0.00611172533334087</v>
+        <v>0.006111725333338648</v>
       </c>
     </row>
     <row r="15">
@@ -1071,10 +1071,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1966.563444089793</v>
+        <v>-19.66563444089869</v>
       </c>
       <c r="C15" t="n">
-        <v>0.09576829702806135</v>
+        <v>0.09576829702804815</v>
       </c>
     </row>
   </sheetData>
@@ -1120,10 +1120,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5777.880232228314</v>
+        <v>5777.88023244838</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0005621194674598266</v>
+        <v>0.0005621194693787668</v>
       </c>
     </row>
     <row r="3">
@@ -1133,10 +1133,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-331.9019303789574</v>
+        <v>-331.9019305028768</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7690101439157259</v>
+        <v>0.7690101439157531</v>
       </c>
     </row>
     <row r="4">
@@ -1146,10 +1146,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>170.4500755531752</v>
+        <v>170.4500754754106</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8806029386230403</v>
+        <v>0.8806029387038121</v>
       </c>
     </row>
     <row r="5">
@@ -1159,10 +1159,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-360.8786659658905</v>
+        <v>-360.8786659658528</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2162734564810117</v>
+        <v>0.2162734564810707</v>
       </c>
     </row>
     <row r="6">
@@ -1172,10 +1172,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-21.04494373091909</v>
+        <v>-21.04494374503314</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8632575003931313</v>
+        <v>0.8632575003015607</v>
       </c>
     </row>
     <row r="7">
@@ -1185,10 +1185,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-362.4399170932361</v>
+        <v>-362.4399170940173</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2131962517584552</v>
+        <v>0.2131962517573472</v>
       </c>
     </row>
     <row r="8">
@@ -1198,10 +1198,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-31.88695278430173</v>
+        <v>-31.88695278323163</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01469081539137169</v>
+        <v>0.0146908153938479</v>
       </c>
     </row>
     <row r="9">
@@ -1211,10 +1211,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>33.06578880675528</v>
+        <v>33.06578878345784</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7873226091689578</v>
+        <v>0.7873226093084572</v>
       </c>
     </row>
     <row r="10">
@@ -1224,10 +1224,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>691.4177832118119</v>
+        <v>691.4177832184705</v>
       </c>
       <c r="C10" t="n">
-        <v>4.22656960092371e-21</v>
+        <v>4.226569589980034e-21</v>
       </c>
     </row>
     <row r="11">
@@ -1237,10 +1237,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1592376251370658</v>
+        <v>-15.92376251286564</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2160157493607978</v>
+        <v>0.2160157493810721</v>
       </c>
     </row>
     <row r="12">
@@ -1250,10 +1250,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0001995173830019937</v>
+        <v>199.5173826819036</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1716888952344015</v>
+        <v>0.1716888957327257</v>
       </c>
     </row>
     <row r="13">
@@ -1263,10 +1263,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>14.94559100506491</v>
+        <v>14.94559100506255</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01470971635457912</v>
+        <v>0.01470971635459536</v>
       </c>
     </row>
     <row r="14">
@@ -1276,10 +1276,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-6809.801249694048</v>
+        <v>-68.09801249694719</v>
       </c>
       <c r="C14" t="n">
-        <v>0.001155098088651693</v>
+        <v>0.001155098088650383</v>
       </c>
     </row>
     <row r="15">
@@ -1289,10 +1289,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-2466.201828664252</v>
+        <v>-24.66201828664355</v>
       </c>
       <c r="C15" t="n">
-        <v>0.03539899322496337</v>
+        <v>0.03539899322495517</v>
       </c>
     </row>
   </sheetData>
@@ -1338,10 +1338,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6759.606483079187</v>
+        <v>6759.606483811479</v>
       </c>
       <c r="C2" t="n">
-        <v>8.953823533017366e-05</v>
+        <v>8.953823550647003e-05</v>
       </c>
     </row>
     <row r="3">
@@ -1351,10 +1351,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1576.533125521908</v>
+        <v>-1576.533125185708</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2026688850466428</v>
+        <v>0.2026688850466378</v>
       </c>
     </row>
     <row r="4">
@@ -1364,10 +1364,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-719.447526970122</v>
+        <v>-719.4475265500205</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5623004783214336</v>
+        <v>0.5623004784489505</v>
       </c>
     </row>
     <row r="5">
@@ -1377,10 +1377,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-462.8980275640846</v>
+        <v>-462.8980276347131</v>
       </c>
       <c r="C5" t="n">
-        <v>0.114639985239854</v>
+        <v>0.1146399851824317</v>
       </c>
     </row>
     <row r="6">
@@ -1390,10 +1390,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>52.60213126442421</v>
+        <v>52.60213116528246</v>
       </c>
       <c r="C6" t="n">
-        <v>0.667519371280094</v>
+        <v>0.6675193718670029</v>
       </c>
     </row>
     <row r="7">
@@ -1403,10 +1403,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-404.2848408716868</v>
+        <v>-404.2848408497828</v>
       </c>
       <c r="C7" t="n">
-        <v>0.167490821772482</v>
+        <v>0.1674908217966401</v>
       </c>
     </row>
     <row r="8">
@@ -1416,10 +1416,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-48.25649637041712</v>
+        <v>-48.25649638825568</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0002408219886606014</v>
+        <v>0.0002408219873643814</v>
       </c>
     </row>
     <row r="9">
@@ -1429,10 +1429,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-66.23225428913048</v>
+        <v>-66.23225422205596</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5902712352224828</v>
+        <v>0.5902712356094986</v>
       </c>
     </row>
     <row r="10">
@@ -1442,10 +1442,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>691.8318356417321</v>
+        <v>691.8318356239485</v>
       </c>
       <c r="C10" t="n">
-        <v>3.61869153537552e-21</v>
+        <v>3.618691546901736e-21</v>
       </c>
     </row>
     <row r="11">
@@ -1455,10 +1455,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1150476492042373</v>
+        <v>-11.50476491428388</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3779891651288306</v>
+        <v>0.3779891653770229</v>
       </c>
     </row>
     <row r="12">
@@ -1468,10 +1468,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9.960888539576662e-05</v>
+        <v>99.60888575813792</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5001874865994511</v>
+        <v>0.5001874850181303</v>
       </c>
     </row>
     <row r="13">
@@ -1481,10 +1481,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>23.86812965101461</v>
+        <v>23.86812965101377</v>
       </c>
       <c r="C13" t="n">
-        <v>3.58372225339273e-05</v>
+        <v>3.583722253395404e-05</v>
       </c>
     </row>
     <row r="14">
@@ -1494,10 +1494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-5556.305306707854</v>
+        <v>-55.5630530670819</v>
       </c>
       <c r="C14" t="n">
-        <v>0.007453858159417466</v>
+        <v>0.007453858159413847</v>
       </c>
     </row>
     <row r="15">
@@ -1507,10 +1507,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-2416.09576276948</v>
+        <v>-24.16095762769567</v>
       </c>
       <c r="C15" t="n">
-        <v>0.04677921739250908</v>
+        <v>0.04677921739250103</v>
       </c>
     </row>
   </sheetData>
@@ -1556,10 +1556,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5078.428157483289</v>
+        <v>5078.428156876003</v>
       </c>
       <c r="C2" t="n">
-        <v>0.008788065326140192</v>
+        <v>0.008788065363357026</v>
       </c>
     </row>
     <row r="3">
@@ -1569,10 +1569,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>830.9094143629513</v>
+        <v>830.9094141450328</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5781531625619157</v>
+        <v>0.5781531625620164</v>
       </c>
     </row>
     <row r="4">
@@ -1582,10 +1582,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1443.193429794025</v>
+        <v>1443.193429699328</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3349106258088419</v>
+        <v>0.3349106257867467</v>
       </c>
     </row>
     <row r="5">
@@ -1595,10 +1595,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-563.4860740219445</v>
+        <v>-563.4860740559112</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05581105582682931</v>
+        <v>0.05581105581719123</v>
       </c>
     </row>
     <row r="6">
@@ -1608,10 +1608,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.414938342266225</v>
+        <v>-2.414938435170441</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9842161432362013</v>
+        <v>0.9842161426290843</v>
       </c>
     </row>
     <row r="7">
@@ -1621,10 +1621,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-688.1408207280308</v>
+        <v>-688.1408207117566</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01852997406510874</v>
+        <v>0.0185299740674178</v>
       </c>
     </row>
     <row r="8">
@@ -1634,10 +1634,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-53.62397103904085</v>
+        <v>-53.62397103953636</v>
       </c>
       <c r="C8" t="n">
-        <v>4.390272714037106e-05</v>
+        <v>4.390272713200045e-05</v>
       </c>
     </row>
     <row r="9">
@@ -1647,10 +1647,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-27.38054638544143</v>
+        <v>-27.38054635829069</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8220581198107775</v>
+        <v>0.8220581199804777</v>
       </c>
     </row>
     <row r="10">
@@ -1660,10 +1660,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>664.2043740377558</v>
+        <v>664.2043740856475</v>
       </c>
       <c r="C10" t="n">
-        <v>1.250542792493233e-18</v>
+        <v>1.250542796497594e-18</v>
       </c>
     </row>
     <row r="11">
@@ -1673,10 +1673,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.10441735050713</v>
+        <v>-10.44173505011285</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4240486556944376</v>
+        <v>0.4240486557217588</v>
       </c>
     </row>
     <row r="12">
@@ -1686,10 +1686,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8.092953770983942e-05</v>
+        <v>80.92953746408361</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5817422715330062</v>
+        <v>0.5817422725342571</v>
       </c>
     </row>
     <row r="13">
@@ -1699,10 +1699,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>23.06046215062793</v>
+        <v>23.06046215062693</v>
       </c>
       <c r="C13" t="n">
-        <v>6.481946134572963e-05</v>
+        <v>6.481946134577768e-05</v>
       </c>
     </row>
     <row r="14">
@@ -1712,10 +1712,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-6186.019853040545</v>
+        <v>-61.86019853040909</v>
       </c>
       <c r="C14" t="n">
-        <v>0.00259356581176264</v>
+        <v>0.002593565811761068</v>
       </c>
     </row>
     <row r="15">
@@ -1725,10 +1725,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1818.52859888708</v>
+        <v>-18.18528598887156</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1308084987487612</v>
+        <v>0.130808498748745</v>
       </c>
     </row>
   </sheetData>
@@ -1774,10 +1774,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6739.265602263369</v>
+        <v>6739.265602191656</v>
       </c>
       <c r="C2" t="n">
-        <v>9.152518033534386e-05</v>
+        <v>9.152518014743565e-05</v>
       </c>
     </row>
     <row r="3">
@@ -1787,10 +1787,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-231.4165300149948</v>
+        <v>-231.4165299216825</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8401983770591083</v>
+        <v>0.8401983770590384</v>
       </c>
     </row>
     <row r="4">
@@ -1800,10 +1800,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>124.5343936359698</v>
+        <v>124.5343936615884</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9139930742419271</v>
+        <v>0.9139930742151887</v>
       </c>
     </row>
     <row r="5">
@@ -1813,10 +1813,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-250.2463287060955</v>
+        <v>-250.2463287034049</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3994152552757492</v>
+        <v>0.3994152552821341</v>
       </c>
     </row>
     <row r="6">
@@ -1826,10 +1826,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4.072471263793034</v>
+        <v>-4.0724712613641</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9746057566015531</v>
+        <v>0.9746057566167344</v>
       </c>
     </row>
     <row r="7">
@@ -1839,10 +1839,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-389.9139243588982</v>
+        <v>-389.9139243627507</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1880677092151543</v>
+        <v>0.1880677092101455</v>
       </c>
     </row>
     <row r="8">
@@ -1852,10 +1852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-45.55516945734027</v>
+        <v>-45.55516945788606</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0007003769650646962</v>
+        <v>0.0007003769650013407</v>
       </c>
     </row>
     <row r="9">
@@ -1865,10 +1865,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>49.71670071574482</v>
+        <v>49.71670069512788</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6868585737058298</v>
+        <v>0.6868585738180191</v>
       </c>
     </row>
     <row r="10">
@@ -1878,10 +1878,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>586.8293827090729</v>
+        <v>586.8293827050177</v>
       </c>
       <c r="C10" t="n">
-        <v>2.144310280516263e-15</v>
+        <v>2.144310283533666e-15</v>
       </c>
     </row>
     <row r="11">
@@ -1891,10 +1891,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1281641205409248</v>
+        <v>-12.81641205636597</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3220380460527162</v>
+        <v>0.3220380459821636</v>
       </c>
     </row>
     <row r="12">
@@ -1904,10 +1904,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7.694726499871585e-05</v>
+        <v>76.94726524822558</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6013313134185543</v>
+        <v>0.6013313122312769</v>
       </c>
     </row>
     <row r="13">
@@ -1917,10 +1917,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>16.91098336580277</v>
+        <v>16.91098336580119</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0042742255095024</v>
+        <v>0.004274225509505995</v>
       </c>
     </row>
     <row r="14">
@@ -1930,10 +1930,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-6017.664395527881</v>
+        <v>-60.17664395527983</v>
       </c>
       <c r="C14" t="n">
-        <v>0.005169382130807597</v>
+        <v>0.005169382130806954</v>
       </c>
     </row>
     <row r="15">
@@ -1943,10 +1943,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-2343.411843496253</v>
+        <v>-23.434118434963</v>
       </c>
       <c r="C15" t="n">
-        <v>0.05274576982798843</v>
+        <v>0.05274576982798402</v>
       </c>
     </row>
   </sheetData>
@@ -1992,10 +1992,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4130.053876226246</v>
+        <v>4130.053876379437</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01594020661993227</v>
+        <v>0.01594020660718213</v>
       </c>
     </row>
     <row r="3">
@@ -2005,10 +2005,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>875.4442394023671</v>
+        <v>875.4442393247369</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4580722896739772</v>
+        <v>0.4580722896739887</v>
       </c>
     </row>
     <row r="4">
@@ -2018,10 +2018,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1479.46800893869</v>
+        <v>1479.468009024083</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2117250147915611</v>
+        <v>0.2117250148082163</v>
       </c>
     </row>
     <row r="5">
@@ -2031,10 +2031,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-212.3768171316408</v>
+        <v>-212.3768171345748</v>
       </c>
       <c r="C5" t="n">
-        <v>0.462242838402113</v>
+        <v>0.4622428383962135</v>
       </c>
     </row>
     <row r="6">
@@ -2044,10 +2044,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-59.13823196969238</v>
+        <v>-59.13823195374576</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6293313719741243</v>
+        <v>0.6293313720662385</v>
       </c>
     </row>
     <row r="7">
@@ -2057,10 +2057,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-498.4333204061813</v>
+        <v>-498.4333204001475</v>
       </c>
       <c r="C7" t="n">
-        <v>0.08475876006266919</v>
+        <v>0.0847587600663048</v>
       </c>
     </row>
     <row r="8">
@@ -2070,10 +2070,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-49.04610787090721</v>
+        <v>-49.04610787404126</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0002061099195876843</v>
+        <v>0.0002061099193591658</v>
       </c>
     </row>
     <row r="9">
@@ -2083,10 +2083,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>61.87710762124166</v>
+        <v>61.87710766034537</v>
       </c>
       <c r="C9" t="n">
-        <v>0.604589332987207</v>
+        <v>0.6045893327520723</v>
       </c>
     </row>
     <row r="10">
@@ -2096,10 +2096,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>715.1870916617509</v>
+        <v>715.1870916261952</v>
       </c>
       <c r="C10" t="n">
-        <v>3.836093402639869e-23</v>
+        <v>3.836093403769021e-23</v>
       </c>
     </row>
     <row r="11">
@@ -2109,10 +2109,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1663312001822424</v>
+        <v>-16.63312001568373</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1938313590456818</v>
+        <v>0.1938313591177522</v>
       </c>
     </row>
     <row r="12">
@@ -2122,10 +2122,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0002339428796325996</v>
+        <v>233.942879562003</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1034724933899865</v>
+        <v>0.1034724935052632</v>
       </c>
     </row>
     <row r="13">
@@ -2135,10 +2135,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>19.94304693757027</v>
+        <v>19.94304693756834</v>
       </c>
       <c r="C13" t="n">
-        <v>0.00049268828864712</v>
+        <v>0.000492688288647747</v>
       </c>
     </row>
     <row r="14">
@@ -2148,10 +2148,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-6751.77650701825</v>
+        <v>-67.51776507018866</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0008023886696772479</v>
+        <v>0.0008023886696763686</v>
       </c>
     </row>
     <row r="15">
@@ -2161,10 +2161,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1398.848009922712</v>
+        <v>-13.98848009922822</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2404082704891742</v>
+        <v>0.2404082704891366</v>
       </c>
     </row>
   </sheetData>
@@ -2210,10 +2210,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4502.614873481172</v>
+        <v>4502.614873713642</v>
       </c>
       <c r="C2" t="n">
-        <v>0.005897968480136383</v>
+        <v>0.005897968488817304</v>
       </c>
     </row>
     <row r="3">
@@ -2223,10 +2223,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-467.6675877417566</v>
+        <v>-467.6675879075835</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6718435345794725</v>
+        <v>0.6718435345795195</v>
       </c>
     </row>
     <row r="4">
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>214.416198370282</v>
+        <v>214.4161981748924</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8466700200072367</v>
+        <v>0.8466700202060349</v>
       </c>
     </row>
     <row r="5">
@@ -2249,10 +2249,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>115.4516593853699</v>
+        <v>115.4516593806043</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6840474660575628</v>
+        <v>0.684047466069194</v>
       </c>
     </row>
     <row r="6">
@@ -2262,10 +2262,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>57.34581107968653</v>
+        <v>57.3458111100245</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6343859468384156</v>
+        <v>0.6343859466624182</v>
       </c>
     </row>
     <row r="7">
@@ -2275,10 +2275,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-869.0723861763797</v>
+        <v>-869.0723861797027</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002329868133970071</v>
+        <v>0.00232986813386336</v>
       </c>
     </row>
     <row r="8">
@@ -2288,10 +2288,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-31.37954355357687</v>
+        <v>-31.37954355307809</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0145501873331041</v>
+        <v>0.0145501873344169</v>
       </c>
     </row>
     <row r="9">
@@ -2301,10 +2301,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>18.65488186101018</v>
+        <v>18.65488180605831</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8741223747193668</v>
+        <v>0.8741223750810972</v>
       </c>
     </row>
     <row r="10">
@@ -2314,10 +2314,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>670.1436113736358</v>
+        <v>670.1436114172292</v>
       </c>
       <c r="C10" t="n">
-        <v>1.464626334721252e-20</v>
+        <v>1.464626316636839e-20</v>
       </c>
     </row>
     <row r="11">
@@ -2327,10 +2327,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1163539426031062</v>
+        <v>-11.63539426076049</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3558834770096129</v>
+        <v>0.3558834769925731</v>
       </c>
     </row>
     <row r="12">
@@ -2340,10 +2340,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0001419877783299893</v>
+        <v>141.9877788468182</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3164773977927807</v>
+        <v>0.3164773963787965</v>
       </c>
     </row>
     <row r="13">
@@ -2353,10 +2353,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>20.16276462069916</v>
+        <v>20.162764620699</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0003279673051605143</v>
+        <v>0.0003279673051605602</v>
       </c>
     </row>
     <row r="14">
@@ -2366,10 +2366,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-5677.254442679677</v>
+        <v>-56.77254442679969</v>
       </c>
       <c r="C14" t="n">
-        <v>0.003855339877710808</v>
+        <v>0.00385533987770902</v>
       </c>
     </row>
     <row r="15">
@@ -2379,10 +2379,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1160.083440235122</v>
+        <v>-11.60083440235159</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3128582731885057</v>
+        <v>0.3128582731884905</v>
       </c>
     </row>
   </sheetData>
